--- a/Översikt.xlsx
+++ b/Översikt.xlsx
@@ -567,16 +567,16 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arnträskbergen</t>
+          <t>Röjdtjärnliden</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -585,39 +585,186 @@
         </is>
       </c>
       <c r="G2" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>31</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>57</v>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Tornseglare
+Gräddporing
+Gräddticka
+Knärot
+Läderlappslav
+Rynkskinn
+Asppraktbagge
+Blanksvart spiklav
+Dvärgbägarlav
+Garnlav
+Grå blåbärsfältmätare
+Grönhjon
+Järpe
+Kolflarnlav
+Kortskaftad ärgspik
+Leptoporus mollis
+Lunglav
+Mörk kolflarnlav
+Reliktbock
+Spillkråka
+Stiftgelélav
+Stjärntagging
+Tallticka
+Talltita
+Tretåig hackspett
+Ullticka
+Vedflamlav
+Vedskivlav
+Vedtrappmossa
+Vitgrynig nållav
+Vitplätt
+Barkticka
+Björksplintborre
+Bronshjon
+Bårdlav
+Dropptaggsvamp
+Dvärgtufs
+Grönpyrola
+Gulnål
+Gytterlav
+Korallblylav
+Kornig nållav
+Norrlandslav
+Plattlummer
+Skinnlav
+Spindelblomster
+Stor aspticka
+Stuplav
+Vedticka
+Kungsfågel
+Tjäder
+Huggorm
+Vanlig groda
+Fläcknycklar
+Grönvit nattviol
+Nattviol
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Röjdtjärnliden artfynd.xlsx", "Röjdtjärnliden")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Röjdtjärnliden karta.png", "Röjdtjärnliden")</f>
+        <v/>
+      </c>
+      <c r="U2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Röjdtjärnliden karta knärot.png", "Röjdtjärnliden")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Röjdtjärnliden FSC-klagomål.docx", "Röjdtjärnliden")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Röjdtjärnliden FSC-klagomål mail.docx", "Röjdtjärnliden")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Röjdtjärnliden tillsynsbegäran.docx", "Röjdtjärnliden")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Röjdtjärnliden tillsynsbegäran mail.docx", "Röjdtjärnliden")</f>
+        <v/>
+      </c>
+      <c r="Z2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Röjdtjärnliden prioriterade fågelarter.docx", "Röjdtjärnliden")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Arnträskbergen</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>1125.5</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H3" t="n">
         <v>11</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I3" t="n">
         <v>17</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J3" t="n">
         <v>20</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K3" t="n">
         <v>9</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>29</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P3" t="n">
         <v>9</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q3" t="n">
         <v>50</v>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Finporing
@@ -671,89 +818,228 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Arnträskbergen artfynd.xlsx", "Arnträskbergen")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Arnträskbergen karta.png", "Arnträskbergen")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Arnträskbergen FSC-klagomål.docx", "Arnträskbergen")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Arnträskbergen FSC-klagomål mail.docx", "Arnträskbergen")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Arnträskbergen tillsynsbegäran.docx", "Arnträskbergen")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Arnträskbergen tillsynsbegäran mail.docx", "Arnträskbergen")</f>
         <v/>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Arnträskbergen prioriterade fågelarter.docx", "Arnträskbergen")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Fulberget</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>117.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>28</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>49</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Rynkskinn
+Barkporlav
+Blek lundlav
+Brunpudrad nållav
+Doftskinn
+Dvärgbägarlav
+Gammelgransskål
+Garnlav
+Granticka
+Gränsticka
+Grå blåbärsfältmätare
+Harticka
+Kolflarnlav
+Kortskaftad ärgspik
+Leptoporus mollis
+Lunglav
+Mörk kolflarnlav
+Rosenticka
+Småflikig brosklav
+Spillkråka
+Stiftgelélav
+Talltita
+Tretåig hackspett
+Ullticka
+Vedskivlav
+Violettgrå tagellav
+Vitgrynig nållav
+Bårdlav
+Dvärgtufs
+Gulnål
+Kornig nållav
+Källpraktmossa
+Luddlav
+Mörk husmossa
+Rävticka
+Skinnlav
+Spindelblomster
+Stor aspticka
+Stuplav
+Thomsons trägnagare
+Trådticka
+Vedticka
+Vågbandad barkbock
+Ögonpyrola
+Lavskrika
+Vanlig padda
+Fläcknycklar
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Fulberget artfynd.xlsx", "Fulberget")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Fulberget karta.png", "Fulberget")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Fulberget karta knärot.png", "Fulberget")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Fulberget FSC-klagomål.docx", "Fulberget")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Fulberget FSC-klagomål mail.docx", "Fulberget")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Fulberget tillsynsbegäran.docx", "Fulberget")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Fulberget tillsynsbegäran mail.docx", "Fulberget")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Fulberget prioriterade fågelarter.docx", "Fulberget")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Sundsjölandet</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G5" t="n">
         <v>381.1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H5" t="n">
         <v>7</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I5" t="n">
         <v>8</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J5" t="n">
         <v>27</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K5" t="n">
         <v>3</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>31</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P5" t="n">
         <v>4</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q5" t="n">
         <v>44</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Urskogsporing
 Fläckporing
@@ -801,89 +1087,89 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Sundsjölandet artfynd.xlsx", "Sundsjölandet")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Sundsjölandet karta.png", "Sundsjölandet")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Sundsjölandet FSC-klagomål.docx", "Sundsjölandet")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Sundsjölandet FSC-klagomål mail.docx", "Sundsjölandet")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Sundsjölandet tillsynsbegäran.docx", "Sundsjölandet")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Sundsjölandet tillsynsbegäran mail.docx", "Sundsjölandet")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Sundsjölandet prioriterade fågelarter.docx", "Sundsjölandet")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Råtjärnberget</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G6" t="n">
         <v>240.4</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H6" t="n">
         <v>10</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I6" t="n">
         <v>14</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J6" t="n">
         <v>17</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K6" t="n">
         <v>5</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>22</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P6" t="n">
         <v>5</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q6" t="n">
         <v>40</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Fläckporing
@@ -927,93 +1213,93 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Råtjärnberget artfynd.xlsx", "Råtjärnberget")</f>
         <v/>
       </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Råtjärnberget karta.png", "Råtjärnberget")</f>
-        <v/>
-      </c>
-      <c r="U4">
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Råtjä</f>
+        <v/>
+      </c>
+      <c r="U6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Råtjärnberget karta knärot.png", "Råtjärnberget")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Råtjärnberget FSC-klagomål.docx", "Råtjärnberget")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Råtjärnberget FSC-klagomål mail.docx", "Råtjärnberget")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Råtjärnberget tillsynsbegäran.docx", "Råtjärnberget")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Råtjärnberget tillsynsbegäran mail.docx", "Råtjärnberget")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Råtjärnberget prioriterade fågelarter.docx", "Råtjärnberget")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Oxliden</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G7" t="n">
         <v>258.7</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H7" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I7" t="n">
         <v>10</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J7" t="n">
         <v>23</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K7" t="n">
         <v>2</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>25</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P7" t="n">
         <v>2</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q7" t="n">
         <v>35</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Rotfingersvamp
@@ -1052,89 +1338,89 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Oxliden artfynd.xlsx", "Oxliden")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Oxliden karta.png", "Oxliden")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Oxliden FSC-klagomål.docx", "Oxliden")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Oxliden FSC-klagomål mail.docx", "Oxliden")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Oxliden tillsynsbegäran.docx", "Oxliden")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Oxliden tillsynsbegäran mail.docx", "Oxliden")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Oxliden prioriterade fågelarter.docx", "Oxliden")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Tyfallsjön</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G8" t="n">
         <v>103.6</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I8" t="n">
         <v>4</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J8" t="n">
         <v>22</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K8" t="n">
         <v>8</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>30</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P8" t="n">
         <v>8</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q8" t="n">
         <v>34</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Goliatmusseron
@@ -1172,89 +1458,89 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Tyfallsjön artfynd.xlsx", "Tyfallsjön")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Tyfallsjön karta.png", "Tyfallsjön")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Tyfallsjön karta knärot.png", "Tyfallsjön")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Tyfallsjön FSC-klagomål.docx", "Tyfallsjön")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Tyfallsjön FSC-klagomål mail.docx", "Tyfallsjön")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Tyfallsjön tillsynsbegäran.docx", "Tyfallsjön")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Tyfallsjön tillsynsbegäran mail.docx", "Tyfallsjön")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Lillgoberget</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G9" t="n">
         <v>102.2</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H9" t="n">
         <v>7</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I9" t="n">
         <v>13</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J9" t="n">
         <v>12</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K9" t="n">
         <v>4</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>16</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P9" t="n">
         <v>4</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q9" t="n">
         <v>32</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Lappticka
@@ -1290,93 +1576,93 @@
 Nattviol</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lillgoberget artfynd.xlsx", "Lillgoberget")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lillgoberget karta.png", "Lillgoberget")</f>
         <v/>
       </c>
-      <c r="U7">
+      <c r="U9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Lillgoberget karta knärot.png", "Lillgoberget")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lillgoberget FSC-klagomål.docx", "Lillgoberget")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lillgoberget FSC-klagomål mail.docx", "Lillgoberget")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lillgoberget tillsynsbegäran.docx", "Lillgoberget")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lillgoberget tillsynsbegäran mail.docx", "Lillgoberget")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Lillgoberget prioriterade fågelarter.docx", "Lillgoberget")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Orratjärnskullen</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G10" t="n">
         <v>64.7</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H10" t="n">
         <v>12</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I10" t="n">
         <v>5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J10" t="n">
         <v>20</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>21</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q10" t="n">
         <v>31</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Doftskinn
@@ -1411,93 +1697,93 @@
 Nattviol</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Orratjärnskullen artfynd.xlsx", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Orratjärnskullen karta.png", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="U8">
+      <c r="U10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Orratjärnskullen karta knärot.png", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Orratjärnskullen FSC-klagomål.docx", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Orratjärnskullen FSC-klagomål mail.docx", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Orratjärnskullen tillsynsbegäran.docx", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Orratjärnskullen tillsynsbegäran mail.docx", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Orratjärnskullen prioriterade fågelarter.docx", "Orratjärnskullen")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Glesskallberget</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G11" t="n">
         <v>771.6</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H11" t="n">
         <v>8</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I11" t="n">
         <v>8</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J11" t="n">
         <v>15</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K11" t="n">
         <v>5</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>20</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P11" t="n">
         <v>5</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q11" t="n">
         <v>30</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Lappticka
@@ -1531,89 +1817,89 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Glesskallberget artfynd.xlsx", "Glesskallberget")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Glesskallberget karta.png", "Glesskallberget")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Glesskallberget FSC-klagomål.docx", "Glesskallberget")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Glesskallberget FSC-klagomål mail.docx", "Glesskallberget")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Glesskallberget tillsynsbegäran.docx", "Glesskallberget")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Glesskallberget tillsynsbegäran mail.docx", "Glesskallberget")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Glesskallberget prioriterade fågelarter.docx", "Glesskallberget")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Hötjärnberget</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G12" t="n">
         <v>65.8</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H12" t="n">
         <v>5</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I12" t="n">
         <v>12</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J12" t="n">
         <v>13</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K12" t="n">
         <v>3</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>16</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P12" t="n">
         <v>3</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q12" t="n">
         <v>29</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Knärot
@@ -1646,93 +1932,211 @@
 Sångsvan</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Hötjärnberget artfynd.xlsx", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Hötjärnberget karta.png", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="U10">
+      <c r="U12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Hötjärnberget karta knärot.png", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Hötjärnberget FSC-klagomål.docx", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Hötjärnberget FSC-klagomål mail.docx", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Hötjärnberget tillsynsbegäran.docx", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Hötjärnberget tillsynsbegäran mail.docx", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Hötjärnberget prioriterade fågelarter.docx", "Hötjärnberget")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>19</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>28</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Trådbrosklav
+Gräddticka
+Knärot
+Rynkskinn
+Ulltickeporing
+Gammelgransskål
+Garnlav
+Granticka
+Harticka
+Leptoporus mollis
+Luddfingersvamp
+Rosenticka
+Stjärntagging
+Tallticka
+Talltita
+Tretåig hackspett
+Ullticka
+Vedtrappmossa
+Vitgrynig nållav
+Bollvitmossa
+Källmossa
+Lappranunkel
+Mörk husmossa
+Spindelblomster
+Trådticka
+Vedticka
+Fläcknycklar
+Fläcknycklar × sumpnycklar</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Stormyrbäcken artfynd.xlsx", "Stormyrbäcken")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Stormyrbäcken karta.png", "Stormyrbäcken")</f>
+        <v/>
+      </c>
+      <c r="U13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Stormyrbäcken karta knärot.png", "Stormyrbäcken")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Stormyrbäcken FSC-klagomål.docx", "Stormyrbäcken")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Stormyrbäcken FSC-klagomål mail.docx", "Stormyrbäcken")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Stormyrbäcken tillsynsbegäran.docx", "Stormyrbäcken")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Stormyrbäcken tillsynsbegäran mail.docx", "Stormyrbäcken")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Stormyrbäcken prioriterade fågelarter.docx", "Stormyrbäcken")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Lögdeälven käringberget</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G14" t="n">
         <v>534.2</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H14" t="n">
         <v>14</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I14" t="n">
         <v>2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J14" t="n">
         <v>13</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K14" t="n">
         <v>5</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>18</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P14" t="n">
         <v>5</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q14" t="n">
         <v>28</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Goliatmusseron
 Gräddticka
@@ -1764,89 +2168,89 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lögdeälven käringberget artfynd.xlsx", "Lögdeälven käringberget")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lögdeälven käringberget karta.png", "Lögdeälven käringberget")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lögdeälven käringberget FSC-klagomål.docx", "Lögdeälven käringberget")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lögdeälven käringberget FSC-klagomål mail.docx", "Lögdeälven käringberget")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lögdeälven käringberget tillsynsbegäran.docx", "Lögdeälven käringberget")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lögdeälven käringberget tillsynsbegäran mail.docx", "Lögdeälven käringberget")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Lögdeälven käringberget prioriterade fågelarter.docx", "Lögdeälven käringberget")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Bastuberget</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G15" t="n">
         <v>170.1</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H15" t="n">
         <v>7</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I15" t="n">
         <v>8</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J15" t="n">
         <v>14</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K15" t="n">
         <v>2</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>16</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P15" t="n">
         <v>2</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q15" t="n">
         <v>27</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Knärot
@@ -1877,93 +2281,93 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Bastuberget artfynd.xlsx", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Bastuberget karta.png", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="U12">
+      <c r="U15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Bastuberget karta knärot.png", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Bastuberget FSC-klagomål.docx", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Bastuberget FSC-klagomål mail.docx", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Bastuberget tillsynsbegäran.docx", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Bastuberget tillsynsbegäran mail.docx", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="Z12">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Bastuberget prioriterade fågelarter.docx", "Bastuberget")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Vitstensberget</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G16" t="n">
         <v>93.3</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H16" t="n">
         <v>6</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I16" t="n">
         <v>9</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J16" t="n">
         <v>11</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K16" t="n">
         <v>2</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>13</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P16" t="n">
         <v>2</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q16" t="n">
         <v>25</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Fläckporing
@@ -1992,89 +2396,196 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Vitstensberget artfynd.xlsx", "Vitstensberget")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Vitstensberget karta.png", "Vitstensberget")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Vitstensberget FSC-klagomål.docx", "Vitstensberget")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Vitstensberget FSC-klagomål mail.docx", "Vitstensberget")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Vitstensberget tillsynsbegäran.docx", "Vitstensberget")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Vitstensberget tillsynsbegäran mail.docx", "Vitstensberget")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Vitstensberget prioriterade fågelarter.docx", "Vitstensberget")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Gåsselmyran</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>19</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>23</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>25</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Gräddporing
+Smalfotad taggsvamp
+Spadskinn
+Tajgataggsvamp
+Blanksvart spiklav
+Blå taggsvamp
+Blågrå svartspik
+Dvärgbägarlav
+Garnlav
+Granticka
+Gränsticka
+Kolflarnlav
+Motaggsvamp
+Mörk kolflarnlav
+Nordtagging
+Orange taggsvamp
+Reliktbock
+Skrovlig taggsvamp
+Tallticka
+Utter
+Vaddporing
+Vedflamlav
+Vedskivlav
+Bollvitmossa
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Gåsselmyran artfynd.xlsx", "Gåsselmyran")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Gåsselmyran karta.png", "Gåsselmyran")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Gåsselmyran FSC-klagomål.docx", "Gåsselmyran")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Gåsselmyran FSC-klagomål mail.docx", "Gåsselmyran")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Gåsselmyran tillsynsbegäran.docx", "Gåsselmyran")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Gåsselmyran tillsynsbegäran mail.docx", "Gåsselmyran")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Käringberget SV</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G18" t="n">
         <v>143.6</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H18" t="n">
         <v>3</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I18" t="n">
         <v>7</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J18" t="n">
         <v>14</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K18" t="n">
         <v>3</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>18</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P18" t="n">
         <v>3</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q18" t="n">
         <v>25</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Goliatmusseron
 Laxgröppa
@@ -2103,89 +2614,89 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Käringberget SV artfynd.xlsx", "Käringberget SV")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Käringberget SV karta.png", "Käringberget SV")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Käringberget SV FSC-klagomål.docx", "Käringberget SV")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Käringberget SV FSC-klagomål mail.docx", "Käringberget SV")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Käringberget SV tillsynsbegäran.docx", "Käringberget SV")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Käringberget SV tillsynsbegäran mail.docx", "Käringberget SV")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Käringberget SV prioriterade fågelarter.docx", "Käringberget SV")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Björnberget NV</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G19" t="n">
         <v>80.59999999999999</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I19" t="n">
         <v>10</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J19" t="n">
         <v>13</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>13</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>24</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Blå taggsvamp
 Doftskinn
@@ -2213,89 +2724,89 @@
 Lavskrika</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Björnberget NV artfynd.xlsx", "Björnberget NV")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Björnberget NV karta.png", "Björnberget NV")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Björnberget NV FSC-klagomål.docx", "Björnberget NV")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Björnberget NV FSC-klagomål mail.docx", "Björnberget NV")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Björnberget NV tillsynsbegäran.docx", "Björnberget NV")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Björnberget NV tillsynsbegäran mail.docx", "Björnberget NV")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Björnberget NV prioriterade fågelarter.docx", "Björnberget NV")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Herrbergsliden norr</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G20" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H20" t="n">
         <v>4</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I20" t="n">
         <v>8</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J20" t="n">
         <v>10</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K20" t="n">
         <v>6</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>16</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P20" t="n">
         <v>6</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q20" t="n">
         <v>24</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Blackticka
 Doftticka
@@ -2323,93 +2834,93 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Herrbergsliden norr artfynd.xlsx", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Herrbergsliden norr karta.png", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="U16">
+      <c r="U20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Herrbergsliden norr karta knärot.png", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Herrbergsliden norr FSC-klagomål.docx", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Herrbergsliden norr FSC-klagomål mail.docx", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Herrbergsliden norr tillsynsbegäran.docx", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Herrbergsliden norr tillsynsbegäran mail.docx", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="Z16">
+      <c r="Z20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Herrbergsliden norr prioriterade fågelarter.docx", "Herrbergsliden norr")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Karlstjärnberget</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G21" t="n">
         <v>56.4</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I21" t="n">
         <v>4</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J21" t="n">
         <v>15</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K21" t="n">
         <v>3</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>18</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P21" t="n">
         <v>3</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q21" t="n">
         <v>23</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Aspfjädermossa
 Aspgelélav
@@ -2436,192 +2947,89 @@
 Orre</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Karlstjärnberget artfynd.xlsx", "Karlstjärnberget")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Karlstjärnberget karta.png", "Karlstjärnberget")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Karlstjärnberget FSC-klagomål.docx", "Karlstjärnberget")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Karlstjärnberget FSC-klagomål mail.docx", "Karlstjärnberget")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Karlstjärnberget tillsynsbegäran.docx", "Karlstjärnberget")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Karlstjärnberget tillsynsbegäran mail.docx", "Karlstjärnberget")</f>
         <v/>
       </c>
-      <c r="Z17">
+      <c r="Z21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Karlstjärnberget prioriterade fågelarter.docx", "Karlstjärnberget")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Gåsselmyran</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Stockbäcken</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="G22" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>15</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>19</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>21</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Gräddporing
-Smalfotad taggsvamp
-Spadskinn
-Tajgataggsvamp
-Blanksvart spiklav
-Blå taggsvamp
-Blågrå svartspik
-Garnlav
-Granticka
-Gränsticka
-Kolflarnlav
-Motaggsvamp
-Nordtagging
-Orange taggsvamp
-Skrovlig taggsvamp
-Tallticka
-Utter
-Vaddporing
-Vedflamlav
-Bollvitmossa
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Gåsselmyran artfynd.xlsx", "Gåsselmyran")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Gåsselmyran karta.png", "Gåsselmyran")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Gåsselmyran FSC-klagomål.docx", "Gåsselmyran")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Gåsselmyran FSC-klagomål mail.docx", "Gåsselmyran")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Gåsselmyran tillsynsbegäran.docx", "Gåsselmyran")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Gåsselmyran tillsynsbegäran mail.docx", "Gåsselmyran")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Stockbäcken</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="I22" t="n">
         <v>3</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J22" t="n">
         <v>13</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K22" t="n">
         <v>3</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>16</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P22" t="n">
         <v>3</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q22" t="n">
         <v>20</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Aspgelélav
 Lappticka
@@ -2645,89 +3053,89 @@
 Lavskrika</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Stockbäcken artfynd.xlsx", "Stockbäcken")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Stockbäcken karta.png", "Stockbäcken")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Stockbäcken FSC-klagomål.docx", "Stockbäcken")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Stockbäcken FSC-klagomål mail.docx", "Stockbäcken")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Stockbäcken tillsynsbegäran.docx", "Stockbäcken")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Stockbäcken tillsynsbegäran mail.docx", "Stockbäcken")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Stockbäcken prioriterade fågelarter.docx", "Stockbäcken")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Rislidtjärnarna</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G23" t="n">
         <v>121.7</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H23" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I23" t="n">
         <v>7</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J23" t="n">
         <v>12</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K23" t="n">
         <v>1</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>13</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q23" t="n">
         <v>20</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Blanksvart spiklav
@@ -2751,93 +3159,93 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Rislidtjärnarna artfynd.xlsx", "Rislidtjärnarna")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Rislidtjärnarna karta.png", "Rislidtjärnarna")</f>
         <v/>
       </c>
-      <c r="U20">
+      <c r="U23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Rislidtjärnarna karta knärot.png", "Rislidtjärnarna")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Rislidtjärnarna FSC-klagomål.docx", "Rislidtjärnarna")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Rislidtjärnarna FSC-klagomål mail.docx", "Rislidtjärnarna")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Rislidtjärnarna tillsynsbegäran.docx", "Rislidtjärnarna")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Rislidtjärnarna tillsynsbegäran mail.docx", "Rislidtjärnarna")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Rislidtjärnarna prioriterade fågelarter.docx", "Rislidtjärnarna")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Kravattensliden</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G24" t="n">
         <v>535.2</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>4</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I24" t="n">
         <v>3</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J24" t="n">
         <v>10</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K24" t="n">
         <v>5</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>15</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P24" t="n">
         <v>5</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q24" t="n">
         <v>20</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Kristallticka
 Lappticka
@@ -2861,89 +3269,89 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Kravattensliden artfynd.xlsx", "Kravattensliden")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Kravattensliden karta.png", "Kravattensliden")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Kravattensliden FSC-klagomål.docx", "Kravattensliden")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Kravattensliden FSC-klagomål mail.docx", "Kravattensliden")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Kravattensliden tillsynsbegäran.docx", "Kravattensliden")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Kravattensliden tillsynsbegäran mail.docx", "Kravattensliden")</f>
         <v/>
       </c>
-      <c r="Z21">
+      <c r="Z24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Kravattensliden prioriterade fågelarter.docx", "Kravattensliden")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Baksjökullen</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G25" t="n">
         <v>152.1</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I25" t="n">
         <v>3</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J25" t="n">
         <v>13</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K25" t="n">
         <v>3</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L25" t="n">
         <v>1</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>17</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P25" t="n">
         <v>4</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q25" t="n">
         <v>20</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Urskogsporing
 Doftticka
@@ -2967,194 +3375,193 @@
 Luddlav</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Baksjökullen artfynd.xlsx", "Baksjökullen")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Baksjökullen karta.png", "Baksjökullen")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Baksjökullen FSC-klagomål.docx", "Baksjökullen")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Baksjökullen FSC-klagomål mail.docx", "Baksjökullen")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Baksjökullen tillsynsbegäran.docx", "Baksjökullen")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Baksjökullen tillsynsbegäran mail.docx", "Baksjökullen")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Stormyrbäcken</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Lögdaselet</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="G26" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>12</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>13</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>18</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Blanksvart spiklav
+Dvärgbägarlav
+Gammelgransskål
+Garnlav
+Liten svartspik
+Lunglav
+Mörk kolflarnlav
+Spillkråka
+Tretåig hackspett
+Vedflamlav
+Vedskivlav
+Vitgrynig nållav
+Luddlav
+Norrlandslav
+Spindelblomster
+Stuplav
+Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lögdaselet artfynd.xlsx", "Lögdaselet")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lögdaselet karta.png", "Lögdaselet")</f>
+        <v/>
+      </c>
+      <c r="U26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Lögdaselet karta knärot.png", "Lögdaselet")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lögdaselet FSC-klagomål.docx", "Lögdaselet")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lögdaselet FSC-klagomål mail.docx", "Lögdaselet")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lögdaselet tillsynsbegäran.docx", "Lögdaselet")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lögdaselet tillsynsbegäran mail.docx", "Lögdaselet")</f>
+        <v/>
+      </c>
+      <c r="Z26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Lögdaselet prioriterade fågelarter.docx", "Lögdaselet")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Holmtjärnen</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
         <v>14</v>
       </c>
-      <c r="H23" t="n">
+      <c r="K27" t="n">
         <v>3</v>
       </c>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>10</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>15</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>19</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Trådbrosklav
-Gräddticka
-Knärot
-Rynkskinn
-Ulltickeporing
-Garnlav
-Granticka
-Leptoporus mollis
-Rosenticka
-Stjärntagging
-Tallticka
-Talltita
-Tretåig hackspett
-Ullticka
-Vitgrynig nållav
-Bollvitmossa
-Källmossa
-Mörk husmossa
-Trådticka</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Stormyrbäcken artfynd.xlsx", "Stormyrbäcken")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Stormyrbäcken karta.png", "Stormyrbäcken")</f>
-        <v/>
-      </c>
-      <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Stormyrbäcken karta knärot.png", "Stormyrbäcken")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Stormyrbäcken FSC-klagomål.docx", "Stormyrbäcken")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Stormyrbäcken FSC-klagomål mail.docx", "Stormyrbäcken")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Stormyrbäcken tillsynsbegäran.docx", "Stormyrbäcken")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Stormyrbäcken tillsynsbegäran mail.docx", "Stormyrbäcken")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Stormyrbäcken prioriterade fågelarter.docx", "Stormyrbäcken")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Holmtjärnen</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>105.2</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>14</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>17</v>
+      </c>
+      <c r="P27" t="n">
         <v>3</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>17</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="Q27" t="n">
         <v>18</v>
       </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Goliatmusseron
@@ -3176,196 +3583,89 @@
 Bårdlav</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Holmtjärnen artfynd.xlsx", "Holmtjärnen")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Holmtjärnen karta.png", "Holmtjärnen")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Holmtjärnen FSC-klagomål.docx", "Holmtjärnen")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Holmtjärnen FSC-klagomål mail.docx", "Holmtjärnen")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Holmtjärnen tillsynsbegäran.docx", "Holmtjärnen")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Holmtjärnen tillsynsbegäran mail.docx", "Holmtjärnen")</f>
         <v/>
       </c>
-      <c r="Z24">
+      <c r="Z27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Holmtjärnen prioriterade fågelarter.docx", "Holmtjärnen")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Lögdaselet</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Björnberget SV</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>166.5</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="G28" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
         <v>4</v>
       </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>12</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>13</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>17</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Blanksvart spiklav
-Dvärgbägarlav
-Gammelgransskål
-Garnlav
-Liten svartspik
-Lunglav
-Mörk kolflarnlav
-Spillkråka
-Tretåig hackspett
-Vedflamlav
-Vedskivlav
-Vitgrynig nållav
-Luddlav
-Norrlandslav
-Stuplav
-Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lögdaselet artfynd.xlsx", "Lögdaselet")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lögdaselet karta.png", "Lögdaselet")</f>
-        <v/>
-      </c>
-      <c r="U25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Lögdaselet karta knärot.png", "Lögdaselet")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lögdaselet FSC-klagomål.docx", "Lögdaselet")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lögdaselet FSC-klagomål mail.docx", "Lögdaselet")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lögdaselet tillsynsbegäran.docx", "Lögdaselet")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lögdaselet tillsynsbegäran mail.docx", "Lögdaselet")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Lögdaselet prioriterade fågelarter.docx", "Lögdaselet")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Björnberget SV</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="J28" t="n">
         <v>10</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>10</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>16</v>
       </c>
-      <c r="R26" s="2" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
         <is>
           <t>Dvärgbägarlav
 Gammelgransskål
@@ -3385,89 +3685,89 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Björnberget SV artfynd.xlsx", "Björnberget SV")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Björnberget SV karta.png", "Björnberget SV")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Björnberget SV FSC-klagomål.docx", "Björnberget SV")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Björnberget SV FSC-klagomål mail.docx", "Björnberget SV")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Björnberget SV tillsynsbegäran.docx", "Björnberget SV")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Björnberget SV tillsynsbegäran mail.docx", "Björnberget SV")</f>
         <v/>
       </c>
-      <c r="Z26">
+      <c r="Z28">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Björnberget SV prioriterade fågelarter.docx", "Björnberget SV")</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Gålgoberget</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G29" t="n">
         <v>57.1</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H29" t="n">
         <v>2</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I29" t="n">
         <v>4</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J29" t="n">
         <v>10</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K29" t="n">
         <v>1</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>11</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P29" t="n">
         <v>1</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q29" t="n">
         <v>16</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Blanksvart spiklav
@@ -3487,93 +3787,93 @@
 Lavskrika</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S29">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Gålgoberget artfynd.xlsx", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T29">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Gålgoberget karta.png", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="U27">
+      <c r="U29">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Gålgoberget karta knärot.png", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V29">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Gålgoberget FSC-klagomål.docx", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W29">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Gålgoberget FSC-klagomål mail.docx", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X29">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Gålgoberget tillsynsbegäran.docx", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y29">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Gålgoberget tillsynsbegäran mail.docx", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="Z27">
+      <c r="Z29">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Gålgoberget prioriterade fågelarter.docx", "Gålgoberget")</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Aspmyrbäcken</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G30" t="n">
         <v>356.4</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I30" t="n">
         <v>4</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J30" t="n">
         <v>9</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K30" t="n">
         <v>3</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>12</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P30" t="n">
         <v>3</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q30" t="n">
         <v>16</v>
       </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Lappticka
 Ostticka
@@ -3593,89 +3893,89 @@
 Trådticka</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Aspmyrbäcken artfynd.xlsx", "Aspmyrbäcken")</f>
         <v/>
       </c>
-      <c r="T28">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Aspmyrbäcken karta.png", "Aspmyrbäcken")</f>
         <v/>
       </c>
-      <c r="V28">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Aspmyrbäcken FSC-klagomål.docx", "Aspmyrbäcken")</f>
         <v/>
       </c>
-      <c r="W28">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Aspmyrbäcken FSC-klagomål mail.docx", "Aspmyrbäcken")</f>
         <v/>
       </c>
-      <c r="X28">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Aspmyrbäcken tillsynsbegäran.docx", "Aspmyrbäcken")</f>
         <v/>
       </c>
-      <c r="Y28">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Aspmyrbäcken tillsynsbegäran mail.docx", "Aspmyrbäcken")</f>
         <v/>
       </c>
-      <c r="Z28">
+      <c r="Z30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Aspmyrbäcken prioriterade fågelarter.docx", "Aspmyrbäcken")</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Gubbmyran</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G31" t="n">
         <v>186</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>2</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J31" t="n">
         <v>11</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K31" t="n">
         <v>3</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>14</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P31" t="n">
         <v>3</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q31" t="n">
         <v>16</v>
       </c>
-      <c r="R29" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Lappticka
 Liten sotlav
@@ -3695,85 +3995,85 @@
 Trådticka</t>
         </is>
       </c>
-      <c r="S29">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Gubbmyran artfynd.xlsx", "Gubbmyran")</f>
         <v/>
       </c>
-      <c r="T29">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Gubbmyran karta.png", "Gubbmyran")</f>
         <v/>
       </c>
-      <c r="V29">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Gubbmyran FSC-klagomål.docx", "Gubbmyran")</f>
         <v/>
       </c>
-      <c r="W29">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Gubbmyran FSC-klagomål mail.docx", "Gubbmyran")</f>
         <v/>
       </c>
-      <c r="X29">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Gubbmyran tillsynsbegäran.docx", "Gubbmyran")</f>
         <v/>
       </c>
-      <c r="Y29">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Gubbmyran tillsynsbegäran mail.docx", "Gubbmyran")</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Kälkåsen</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="G32" t="n">
         <v>58.4</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H32" t="n">
         <v>2</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I32" t="n">
         <v>5</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J32" t="n">
         <v>7</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K32" t="n">
         <v>3</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>10</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P32" t="n">
         <v>3</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q32" t="n">
         <v>15</v>
       </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Gräddporing
@@ -3792,93 +4092,93 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Kälkåsen artfynd.xlsx", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Kälkåsen karta.png", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="U30">
+      <c r="U32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Kälkåsen karta knärot.png", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Kälkåsen FSC-klagomål.docx", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Kälkåsen FSC-klagomål mail.docx", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Kälkåsen tillsynsbegäran.docx", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Kälkåsen tillsynsbegäran mail.docx", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="Z30">
+      <c r="Z32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Kälkåsen prioriterade fågelarter.docx", "Kälkåsen")</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Trollberget</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G33" t="n">
         <v>110.6</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>6</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J33" t="n">
         <v>9</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>9</v>
       </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>15</v>
       </c>
-      <c r="R31" s="2" t="inlineStr">
+      <c r="R33" s="2" t="inlineStr">
         <is>
           <t>Doftskinn
 Granticka
@@ -3897,85 +4197,85 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S31">
+      <c r="S33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Trollberget artfynd.xlsx", "Trollberget")</f>
         <v/>
       </c>
-      <c r="T31">
+      <c r="T33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Trollberget karta.png", "Trollberget")</f>
         <v/>
       </c>
-      <c r="V31">
+      <c r="V33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Trollberget FSC-klagomål.docx", "Trollberget")</f>
         <v/>
       </c>
-      <c r="W31">
+      <c r="W33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Trollberget FSC-klagomål mail.docx", "Trollberget")</f>
         <v/>
       </c>
-      <c r="X31">
+      <c r="X33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Trollberget tillsynsbegäran.docx", "Trollberget")</f>
         <v/>
       </c>
-      <c r="Y31">
+      <c r="Y33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Trollberget tillsynsbegäran mail.docx", "Trollberget")</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Björnberget N</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="G34" t="n">
         <v>29.2</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>4</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J34" t="n">
         <v>9</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K34" t="n">
         <v>1</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>10</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P34" t="n">
         <v>1</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q34" t="n">
         <v>14</v>
       </c>
-      <c r="R32" s="2" t="inlineStr">
+      <c r="R34" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Blå taggsvamp
@@ -3993,85 +4293,85 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S32">
+      <c r="S34">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Björnberget N artfynd.xlsx", "Björnberget N")</f>
         <v/>
       </c>
-      <c r="T32">
+      <c r="T34">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Björnberget N karta.png", "Björnberget N")</f>
         <v/>
       </c>
-      <c r="V32">
+      <c r="V34">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Björnberget N FSC-klagomål.docx", "Björnberget N")</f>
         <v/>
       </c>
-      <c r="W32">
+      <c r="W34">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Björnberget N FSC-klagomål mail.docx", "Björnberget N")</f>
         <v/>
       </c>
-      <c r="X32">
+      <c r="X34">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Björnberget N tillsynsbegäran.docx", "Björnberget N")</f>
         <v/>
       </c>
-      <c r="Y32">
+      <c r="Y34">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Björnberget N tillsynsbegäran mail.docx", "Björnberget N")</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Gåstjärnen</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G35" t="n">
         <v>62.7</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H35" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>11</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K35" t="n">
         <v>3</v>
       </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>14</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P35" t="n">
         <v>3</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q35" t="n">
         <v>14</v>
       </c>
-      <c r="R33" s="2" t="inlineStr">
+      <c r="R35" s="2" t="inlineStr">
         <is>
           <t>Goliatmusseron
 Knärot
@@ -4089,89 +4389,89 @@
 Vitgrynig nållav</t>
         </is>
       </c>
-      <c r="S33">
+      <c r="S35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Gåstjärnen artfynd.xlsx", "Gåstjärnen")</f>
         <v/>
       </c>
-      <c r="T33">
+      <c r="T35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Gåstjärnen karta.png", "Gåstjärnen")</f>
         <v/>
       </c>
-      <c r="U33">
+      <c r="U35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Gåstjärnen karta knärot.png", "Gåstjärnen")</f>
         <v/>
       </c>
-      <c r="V33">
+      <c r="V35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Gåstjärnen FSC-klagomål.docx", "Gåstjärnen")</f>
         <v/>
       </c>
-      <c r="W33">
+      <c r="W35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Gåstjärnen FSC-klagomål mail.docx", "Gåstjärnen")</f>
         <v/>
       </c>
-      <c r="X33">
+      <c r="X35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Gåstjärnen tillsynsbegäran.docx", "Gåstjärnen")</f>
         <v/>
       </c>
-      <c r="Y33">
+      <c r="Y35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Gåstjärnen tillsynsbegäran mail.docx", "Gåstjärnen")</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Lappberget</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="G36" t="n">
         <v>60.4</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>4</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J36" t="n">
         <v>10</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>10</v>
       </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>14</v>
       </c>
-      <c r="R34" s="2" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>Doftskinn
 Gammelgransskål
@@ -4189,85 +4489,85 @@
 Trådticka</t>
         </is>
       </c>
-      <c r="S34">
+      <c r="S36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lappberget artfynd.xlsx", "Lappberget")</f>
         <v/>
       </c>
-      <c r="T34">
+      <c r="T36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lappberget karta.png", "Lappberget")</f>
         <v/>
       </c>
-      <c r="V34">
+      <c r="V36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lappberget FSC-klagomål.docx", "Lappberget")</f>
         <v/>
       </c>
-      <c r="W34">
+      <c r="W36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lappberget FSC-klagomål mail.docx", "Lappberget")</f>
         <v/>
       </c>
-      <c r="X34">
+      <c r="X36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lappberget tillsynsbegäran.docx", "Lappberget")</f>
         <v/>
       </c>
-      <c r="Y34">
+      <c r="Y36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lappberget tillsynsbegäran mail.docx", "Lappberget")</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Stor-Svartliden</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="G37" t="n">
         <v>187.8</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H37" t="n">
         <v>2</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I37" t="n">
         <v>4</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J37" t="n">
         <v>7</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K37" t="n">
         <v>1</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>8</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P37" t="n">
         <v>1</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q37" t="n">
         <v>13</v>
       </c>
-      <c r="R35" s="2" t="inlineStr">
+      <c r="R37" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Doftskinn
@@ -4284,85 +4584,85 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S35">
+      <c r="S37">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Stor-Svartliden artfynd.xlsx", "Stor-Svartliden")</f>
         <v/>
       </c>
-      <c r="T35">
+      <c r="T37">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Stor-Svartliden karta.png", "Stor-Svartliden")</f>
         <v/>
       </c>
-      <c r="V35">
+      <c r="V37">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Stor-Svartliden FSC-klagomål.docx", "Stor-Svartliden")</f>
         <v/>
       </c>
-      <c r="W35">
+      <c r="W37">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Stor-Svartliden FSC-klagomål mail.docx", "Stor-Svartliden")</f>
         <v/>
       </c>
-      <c r="X35">
+      <c r="X37">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Stor-Svartliden tillsynsbegäran.docx", "Stor-Svartliden")</f>
         <v/>
       </c>
-      <c r="Y35">
+      <c r="Y37">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Stor-Svartliden tillsynsbegäran mail.docx", "Stor-Svartliden")</f>
         <v/>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Kläpptjärnen</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G36" t="n">
+      <c r="G38" t="n">
         <v>113.3</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>3</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J38" t="n">
         <v>8</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K38" t="n">
         <v>2</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>10</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P38" t="n">
         <v>2</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q38" t="n">
         <v>13</v>
       </c>
-      <c r="R36" s="2" t="inlineStr">
+      <c r="R38" s="2" t="inlineStr">
         <is>
           <t>Goliatmusseron
 Jättemusseron
@@ -4379,85 +4679,85 @@
 Tallfingersvamp</t>
         </is>
       </c>
-      <c r="S36">
+      <c r="S38">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Kläpptjärnen artfynd.xlsx", "Kläpptjärnen")</f>
         <v/>
       </c>
-      <c r="T36">
+      <c r="T38">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Kläpptjärnen karta.png", "Kläpptjärnen")</f>
         <v/>
       </c>
-      <c r="V36">
+      <c r="V38">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Kläpptjärnen FSC-klagomål.docx", "Kläpptjärnen")</f>
         <v/>
       </c>
-      <c r="W36">
+      <c r="W38">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Kläpptjärnen FSC-klagomål mail.docx", "Kläpptjärnen")</f>
         <v/>
       </c>
-      <c r="X36">
+      <c r="X38">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Kläpptjärnen tillsynsbegäran.docx", "Kläpptjärnen")</f>
         <v/>
       </c>
-      <c r="Y36">
+      <c r="Y38">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Kläpptjärnen tillsynsbegäran mail.docx", "Kläpptjärnen")</f>
         <v/>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>Stensjöåsen</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G37" t="n">
+      <c r="G39" t="n">
         <v>117.8</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>3</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J39" t="n">
         <v>7</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K39" t="n">
         <v>2</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>9</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P39" t="n">
         <v>2</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q39" t="n">
         <v>12</v>
       </c>
-      <c r="R37" s="2" t="inlineStr">
+      <c r="R39" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Tajgataggsvamp
@@ -4473,85 +4773,85 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S37">
+      <c r="S39">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Stensjöåsen artfynd.xlsx", "Stensjöåsen")</f>
         <v/>
       </c>
-      <c r="T37">
+      <c r="T39">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Stensjöåsen karta.png", "Stensjöåsen")</f>
         <v/>
       </c>
-      <c r="V37">
+      <c r="V39">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Stensjöåsen FSC-klagomål.docx", "Stensjöåsen")</f>
         <v/>
       </c>
-      <c r="W37">
+      <c r="W39">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Stensjöåsen FSC-klagomål mail.docx", "Stensjöåsen")</f>
         <v/>
       </c>
-      <c r="X37">
+      <c r="X39">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Stensjöåsen tillsynsbegäran.docx", "Stensjöåsen")</f>
         <v/>
       </c>
-      <c r="Y37">
+      <c r="Y39">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Stensjöåsen tillsynsbegäran mail.docx", "Stensjöåsen")</f>
         <v/>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Blåbergssjön</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G38" t="n">
+      <c r="G40" t="n">
         <v>27.1</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>3</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J40" t="n">
         <v>7</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>7</v>
       </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>10</v>
       </c>
-      <c r="R38" s="2" t="inlineStr">
+      <c r="R40" s="2" t="inlineStr">
         <is>
           <t>Blanksvart spiklav
 Dvärgbägarlav
@@ -4565,180 +4865,85 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S38">
+      <c r="S40">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Blåbergssjön artfynd.xlsx", "Blåbergssjön")</f>
         <v/>
       </c>
-      <c r="T38">
+      <c r="T40">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Blåbergssjön karta.png", "Blåbergssjön")</f>
         <v/>
       </c>
-      <c r="V38">
+      <c r="V40">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Blåbergssjön FSC-klagomål.docx", "Blåbergssjön")</f>
         <v/>
       </c>
-      <c r="W38">
+      <c r="W40">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Blåbergssjön FSC-klagomål mail.docx", "Blåbergssjön")</f>
         <v/>
       </c>
-      <c r="X38">
+      <c r="X40">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Blåbergssjön tillsynsbegäran.docx", "Blåbergssjön")</f>
         <v/>
       </c>
-      <c r="Y38">
+      <c r="Y40">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Blåbergssjön tillsynsbegäran mail.docx", "Blåbergssjön")</f>
         <v/>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Fulberget</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Käringberget SO</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G39" t="n">
-        <v>117.3</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
+      <c r="G41" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>6</v>
       </c>
-      <c r="K39" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>7</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>9</v>
-      </c>
-      <c r="R39" s="2" t="inlineStr">
-        <is>
-          <t>Rynkskinn
-Garnlav
-Granticka
-Harticka
-Småflikig brosklav
-Tretåig hackspett
-Ullticka
-Skinnlav
-Stor aspticka</t>
-        </is>
-      </c>
-      <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Fulberget artfynd.xlsx", "Fulberget")</f>
-        <v/>
-      </c>
-      <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Fulberget karta.png", "Fulberget")</f>
-        <v/>
-      </c>
-      <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Fulberget FSC-klagomål.docx", "Fulberget")</f>
-        <v/>
-      </c>
-      <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Fulberget FSC-klagomål mail.docx", "Fulberget")</f>
-        <v/>
-      </c>
-      <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Fulberget tillsynsbegäran.docx", "Fulberget")</f>
-        <v/>
-      </c>
-      <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Fulberget tillsynsbegäran mail.docx", "Fulberget")</f>
-        <v/>
-      </c>
-      <c r="Z39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Fulberget prioriterade fågelarter.docx", "Fulberget")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Käringberget SO</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>3</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>6</v>
-      </c>
-      <c r="R40" s="2" t="inlineStr">
+      <c r="R41" s="2" t="inlineStr">
         <is>
           <t>Lunglav
 Ullticka
@@ -4748,85 +4953,85 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S40">
+      <c r="S41">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Käringberget SO artfynd.xlsx", "Käringberget SO")</f>
         <v/>
       </c>
-      <c r="T40">
+      <c r="T41">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Käringberget SO karta.png", "Käringberget SO")</f>
         <v/>
       </c>
-      <c r="V40">
+      <c r="V41">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Käringberget SO FSC-klagomål.docx", "Käringberget SO")</f>
         <v/>
       </c>
-      <c r="W40">
+      <c r="W41">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Käringberget SO FSC-klagomål mail.docx", "Käringberget SO")</f>
         <v/>
       </c>
-      <c r="X40">
+      <c r="X41">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Käringberget SO tillsynsbegäran.docx", "Käringberget SO")</f>
         <v/>
       </c>
-      <c r="Y40">
+      <c r="Y41">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Käringberget SO tillsynsbegäran mail.docx", "Käringberget SO")</f>
         <v/>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>Tällvattsåsen</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G41" t="n">
+      <c r="G42" t="n">
         <v>190.3</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J42" t="n">
         <v>3</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K42" t="n">
         <v>2</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>5</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P42" t="n">
         <v>2</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q42" t="n">
         <v>6</v>
       </c>
-      <c r="R41" s="2" t="inlineStr">
+      <c r="R42" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Rynkskinn
@@ -4836,89 +5041,89 @@
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S41">
+      <c r="S42">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Tällvattsåsen artfynd.xlsx", "Tällvattsåsen")</f>
         <v/>
       </c>
-      <c r="T41">
+      <c r="T42">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Tällvattsåsen karta.png", "Tällvattsåsen")</f>
         <v/>
       </c>
-      <c r="U41">
+      <c r="U42">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Tällvattsåsen karta knärot.png", "Tällvattsåsen")</f>
         <v/>
       </c>
-      <c r="V41">
+      <c r="V42">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Tällvattsåsen FSC-klagomål.docx", "Tällvattsåsen")</f>
         <v/>
       </c>
-      <c r="W41">
+      <c r="W42">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Tällvattsåsen FSC-klagomål mail.docx", "Tällvattsåsen")</f>
         <v/>
       </c>
-      <c r="X41">
+      <c r="X42">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Tällvattsåsen tillsynsbegäran.docx", "Tällvattsåsen")</f>
         <v/>
       </c>
-      <c r="Y41">
+      <c r="Y42">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Tällvattsåsen tillsynsbegäran mail.docx", "Tällvattsåsen")</f>
         <v/>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>Alingsås</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G42" t="n">
+      <c r="G43" t="n">
         <v>129.9</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
         <v>3</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K43" t="n">
         <v>1</v>
       </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>4</v>
       </c>
-      <c r="P42" t="n">
+      <c r="P43" t="n">
         <v>1</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="Q43" t="n">
         <v>4</v>
       </c>
-      <c r="R42" s="2" t="inlineStr">
+      <c r="R43" s="2" t="inlineStr">
         <is>
           <t>Liten sotlav
 Doftskinn
@@ -4926,85 +5131,85 @@
 Ullticka</t>
         </is>
       </c>
-      <c r="S42">
+      <c r="S43">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Alingsås artfynd.xlsx", "Alingsås")</f>
         <v/>
       </c>
-      <c r="T42">
+      <c r="T43">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Alingsås karta.png", "Alingsås")</f>
         <v/>
       </c>
-      <c r="V42">
+      <c r="V43">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Alingsås FSC-klagomål.docx", "Alingsås")</f>
         <v/>
       </c>
-      <c r="W42">
+      <c r="W43">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Alingsås FSC-klagomål mail.docx", "Alingsås")</f>
         <v/>
       </c>
-      <c r="X42">
+      <c r="X43">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Alingsås tillsynsbegäran.docx", "Alingsås")</f>
         <v/>
       </c>
-      <c r="Y42">
+      <c r="Y43">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Alingsås tillsynsbegäran mail.docx", "Alingsås")</f>
         <v/>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>Norrnäs</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G43" t="n">
+      <c r="G44" t="n">
         <v>48.6</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
         <v>4</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>4</v>
       </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>4</v>
       </c>
-      <c r="R43" s="2" t="inlineStr">
+      <c r="R44" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Granticka
@@ -5012,85 +5217,85 @@
 Ullticka</t>
         </is>
       </c>
-      <c r="S43">
+      <c r="S44">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Norrnäs artfynd.xlsx", "Norrnäs")</f>
         <v/>
       </c>
-      <c r="T43">
+      <c r="T44">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Norrnäs karta.png", "Norrnäs")</f>
         <v/>
       </c>
-      <c r="V43">
+      <c r="V44">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Norrnäs FSC-klagomål.docx", "Norrnäs")</f>
         <v/>
       </c>
-      <c r="W43">
+      <c r="W44">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Norrnäs FSC-klagomål mail.docx", "Norrnäs")</f>
         <v/>
       </c>
-      <c r="X43">
+      <c r="X44">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Norrnäs tillsynsbegäran.docx", "Norrnäs")</f>
         <v/>
       </c>
-      <c r="Y43">
+      <c r="Y44">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Norrnäs tillsynsbegäran mail.docx", "Norrnäs")</f>
         <v/>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>Lill-Smaltjärnen</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G44" t="n">
+      <c r="G45" t="n">
         <v>174.7</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J45" t="n">
         <v>3</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>3</v>
       </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>4</v>
       </c>
-      <c r="R44" s="2" t="inlineStr">
+      <c r="R45" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Lunglav
@@ -5098,85 +5303,85 @@
 Luddlav</t>
         </is>
       </c>
-      <c r="S44">
+      <c r="S45">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lill-Smaltjärnen artfynd.xlsx", "Lill-Smaltjärnen")</f>
         <v/>
       </c>
-      <c r="T44">
+      <c r="T45">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lill-Smaltjärnen karta.png", "Lill-Smaltjärnen")</f>
         <v/>
       </c>
-      <c r="V44">
+      <c r="V45">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lill-Smaltjärnen FSC-klagomål.docx", "Lill-Smaltjärnen")</f>
         <v/>
       </c>
-      <c r="W44">
+      <c r="W45">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lill-Smaltjärnen FSC-klagomål mail.docx", "Lill-Smaltjärnen")</f>
         <v/>
       </c>
-      <c r="X44">
+      <c r="X45">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lill-Smaltjärnen tillsynsbegäran.docx", "Lill-Smaltjärnen")</f>
         <v/>
       </c>
-      <c r="Y44">
+      <c r="Y45">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lill-Smaltjärnen tillsynsbegäran mail.docx", "Lill-Smaltjärnen")</f>
         <v/>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Stornäsholmen</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G45" t="n">
+      <c r="G46" t="n">
         <v>25.5</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J46" t="n">
         <v>2</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K46" t="n">
         <v>1</v>
       </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>3</v>
       </c>
-      <c r="P45" t="n">
+      <c r="P46" t="n">
         <v>1</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q46" t="n">
         <v>4</v>
       </c>
-      <c r="R45" s="2" t="inlineStr">
+      <c r="R46" s="2" t="inlineStr">
         <is>
           <t>Rynkskinn
 Rosenticka
@@ -5184,85 +5389,85 @@
 Tibast</t>
         </is>
       </c>
-      <c r="S45">
+      <c r="S46">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Stornäsholmen artfynd.xlsx", "Stornäsholmen")</f>
         <v/>
       </c>
-      <c r="T45">
+      <c r="T46">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Stornäsholmen karta.png", "Stornäsholmen")</f>
         <v/>
       </c>
-      <c r="V45">
+      <c r="V46">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Stornäsholmen FSC-klagomål.docx", "Stornäsholmen")</f>
         <v/>
       </c>
-      <c r="W45">
+      <c r="W46">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Stornäsholmen FSC-klagomål mail.docx", "Stornäsholmen")</f>
         <v/>
       </c>
-      <c r="X45">
+      <c r="X46">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Stornäsholmen tillsynsbegäran.docx", "Stornäsholmen")</f>
         <v/>
       </c>
-      <c r="Y45">
+      <c r="Y46">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Stornäsholmen tillsynsbegäran mail.docx", "Stornäsholmen")</f>
         <v/>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="15" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>Lill-Lögdåberget O</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G46" t="n">
+      <c r="G47" t="n">
         <v>27.2</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
         <v>3</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K47" t="n">
         <v>1</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
         <v>4</v>
       </c>
-      <c r="P46" t="n">
+      <c r="P47" t="n">
         <v>1</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q47" t="n">
         <v>4</v>
       </c>
-      <c r="R46" s="2" t="inlineStr">
+      <c r="R47" s="2" t="inlineStr">
         <is>
           <t>Rynkskinn
 Corticaria interstitialis
@@ -5270,128 +5475,44 @@
 Granbarkmögelbagge</t>
         </is>
       </c>
-      <c r="S46">
+      <c r="S47">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lill-Lögdåberget O artfynd.xlsx", "Lill-Lögdåberget O")</f>
         <v/>
       </c>
-      <c r="T46">
+      <c r="T47">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lill-Lögdåberget O karta.png", "Lill-Lögdåberget O")</f>
         <v/>
       </c>
-      <c r="V46">
+      <c r="V47">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lill-Lögdåberget O FSC-klagomål.docx", "Lill-Lögdåberget O")</f>
         <v/>
       </c>
-      <c r="W46">
+      <c r="W47">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lill-Lögdåberget O FSC-klagomål mail.docx", "Lill-Lögdåberget O")</f>
         <v/>
       </c>
-      <c r="X46">
+      <c r="X47">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lill-Lögdåberget O tillsynsbegäran.docx", "Lill-Lögdåberget O")</f>
         <v/>
       </c>
-      <c r="Y46">
+      <c r="Y47">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lill-Lögdåberget O tillsynsbegäran mail.docx", "Lill-Lögdåberget O")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Vitstensberget V</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>112.2</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>2</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2</v>
-      </c>
-      <c r="R47" s="2" t="inlineStr">
-        <is>
-          <t>Dvärgbägarlav
-Violettgrå tagellav</t>
-        </is>
-      </c>
-      <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Vitstensberget V artfynd.xlsx", "Vitstensberget V")</f>
-        <v/>
-      </c>
-      <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Vitstensberget V karta.png", "Vitstensberget V")</f>
-        <v/>
-      </c>
-      <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Vitstensberget V FSC-klagomål.docx", "Vitstensberget V")</f>
-        <v/>
-      </c>
-      <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Vitstensberget V FSC-klagomål mail.docx", "Vitstensberget V")</f>
-        <v/>
-      </c>
-      <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Vitstensberget V tillsynsbegäran.docx", "Vitstensberget V")</f>
-        <v/>
-      </c>
-      <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Vitstensberget V tillsynsbegäran mail.docx", "Vitstensberget V")</f>
         <v/>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Lubbliden</t>
+          <t>Vitstensberget V</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
@@ -5400,10 +5521,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>299.4</v>
+        <v>112.2</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -5434,52 +5555,48 @@
       </c>
       <c r="R48" s="2" t="inlineStr">
         <is>
-          <t>Lunglav
-Tretåig hackspett</t>
+          <t>Dvärgbägarlav
+Violettgrå tagellav</t>
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lubbliden artfynd.xlsx", "Lubbliden")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Vitstensberget V artfynd.xlsx", "Vitstensberget V")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lubbliden karta.png", "Lubbliden")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Vitstensberget V karta.png", "Vitstensberget V")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lubbliden FSC-klagomål.docx", "Lubbliden")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Vitstensberget V FSC-klagomål.docx", "Vitstensberget V")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lubbliden FSC-klagomål mail.docx", "Lubbliden")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Vitstensberget V FSC-klagomål mail.docx", "Vitstensberget V")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lubbliden tillsynsbegäran.docx", "Lubbliden")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Vitstensberget V tillsynsbegäran.docx", "Vitstensberget V")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lubbliden tillsynsbegäran mail.docx", "Lubbliden")</f>
-        <v/>
-      </c>
-      <c r="Z48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Lubbliden prioriterade fågelarter.docx", "Lubbliden")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Vitstensberget V tillsynsbegäran mail.docx", "Vitstensberget V")</f>
         <v/>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Lögdeälven</t>
+          <t>Lubbliden</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
@@ -5488,10 +5605,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>115.9</v>
+        <v>299.4</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -5523,47 +5640,51 @@
       <c r="R49" s="2" t="inlineStr">
         <is>
           <t>Lunglav
-Reliktbock</t>
+Tretåig hackspett</t>
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lögdeälven artfynd.xlsx", "Lögdeälven")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lubbliden artfynd.xlsx", "Lubbliden")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lögdeälven karta.png", "Lögdeälven")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lubbliden karta.png", "Lubbliden")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lögdeälven FSC-klagomål.docx", "Lögdeälven")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lubbliden FSC-klagomål.docx", "Lubbliden")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lögdeälven FSC-klagomål mail.docx", "Lögdeälven")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lubbliden FSC-klagomål mail.docx", "Lubbliden")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lögdeälven tillsynsbegäran.docx", "Lögdeälven")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lubbliden tillsynsbegäran.docx", "Lubbliden")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lögdeälven tillsynsbegäran mail.docx", "Lögdeälven")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lubbliden tillsynsbegäran mail.docx", "Lubbliden")</f>
+        <v/>
+      </c>
+      <c r="Z49">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Lubbliden prioriterade fågelarter.docx", "Lubbliden")</f>
         <v/>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Röjdtjärnliden</t>
+          <t>Lögdeälven</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
@@ -5572,7 +5693,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>80.90000000000001</v>
+        <v>115.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -5581,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -5596,41 +5717,42 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R50" s="2" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Lunglav
+Reliktbock</t>
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Röjdtjärnliden artfynd.xlsx", "Röjdtjärnliden")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lögdeälven artfynd.xlsx", "Lögdeälven")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Röjdtjärnliden karta.png", "Röjdtjärnliden")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lögdeälven karta.png", "Lögdeälven")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Röjdtjärnliden FSC-klagomål.docx", "Röjdtjärnliden")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lögdeälven FSC-klagomål.docx", "Lögdeälven")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Röjdtjärnliden FSC-klagomål mail.docx", "Röjdtjärnliden")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lögdeälven FSC-klagomål mail.docx", "Lögdeälven")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Röjdtjärnliden tillsynsbegäran.docx", "Röjdtjärnliden")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lögdeälven tillsynsbegäran.docx", "Lögdeälven")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Röjdtjärnliden tillsynsbegäran mail.docx", "Röjdtjärnliden")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lögdeälven tillsynsbegäran mail.docx", "Lögdeälven")</f>
         <v/>
       </c>
     </row>
@@ -5642,11 +5764,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
@@ -5729,11 +5851,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
@@ -5812,11 +5934,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
@@ -5895,11 +6017,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
@@ -5950,11 +6072,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
@@ -6005,11 +6127,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
@@ -6060,11 +6182,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
@@ -6115,11 +6237,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
@@ -6170,11 +6292,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
@@ -6225,11 +6347,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
@@ -6280,11 +6402,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
@@ -6335,11 +6457,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
@@ -6390,11 +6512,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
@@ -6445,11 +6567,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
@@ -6500,11 +6622,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">

--- a/Översikt.xlsx
+++ b/Översikt.xlsx
@@ -567,16 +567,16 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Röjdtjärnliden</t>
+          <t>Råtjärnberget</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -585,39 +585,455 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>80.90000000000001</v>
+        <v>240.4</v>
       </c>
       <c r="H2" t="n">
         <v>16</v>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J2" t="n">
+        <v>37</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>74</v>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Aspgelélav
+Doftticka
+Fläckporing
+Gräddporing
+Knärot
+Läderlappslav
+Rynkskinn
+Aspbarkgnagare
+Baltiskt skogsfly
+Barkporlav
+Blanksvart spiklav
+Blågrå svartspik
+Doftskinn
+Dvärgbägarlav
+Gammelgransskål
+Garnlav
+Granticka
+Gränsticka
+Grå blåbärsfältmätare
+Grön aspvedbock
+Hornvaxskinn
+Järpe
+Kandelabersvamp
+Kolflarnlav
+Kortskaftad ärgspik
+Liten svartspik
+Lunglav
+Mörk kolflarnlav
+Nordlig nållav
+Nordtagging
+Reliktbock
+Rosenticka
+Rödvingetrast
+Småflikig brosklav
+Spillkråka
+Stiftgelélav
+Talltita
+Tretåig hackspett
+Ullticka
+Vedflamlav
+Vedskivlav
+Vedtrappmossa
+Violettgrå tagellav
+Vitgrynig nållav
+Aspvedgnagare
+Barkkornlav
+Blodticka
+Bårdlav
+Dropptaggsvamp
+Dvärgtufs
+Gytterlav
+Luddlav
+Mindre märgborre
+Norrlandslav
+Nästlav
+Plattlummer
+Robust tickgnagare
+Rävticka
+Skinnlav
+Spindelblomster
+Spädstarr
+Stekelbock
+Stor aspticka
+Stuplav
+Traslav
+Vedticka
+Ögonpyrola
+Grönsiska
+Kungsfågel
+Pärluggla
+Tjäder
+Fläcknycklar
+Nattviol
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Råtjärnberget artfynd.xlsx", "Råtjärnberget")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Råtjärnberget karta.png", "Råtjärnberget")</f>
+        <v/>
+      </c>
+      <c r="U2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Råtjärnberget karta knärot.png", "Råtjärnberget")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Råtjärnberget FSC-klagomål.docx", "Råtjärnberget")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Råtjärnberget FSC-klagomål mail.docx", "Råtjärnberget")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Råtjärnberget tillsynsbegäran.docx", "Råtjärnberget")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Råtjärnberget tillsynsbegäran mail.docx", "Råtjärnberget")</f>
+        <v/>
+      </c>
+      <c r="Z2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Råtjärnberget prioriterade fågelarter.docx", "Råtjärnberget")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kravattensliden</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>535.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="n">
+        <v>20</v>
+      </c>
+      <c r="J3" t="n">
+        <v>26</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>38</v>
+      </c>
+      <c r="P3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>65</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Knärot
+Kristallticka
+Lappticka
+Liten aspgelélav
+Långskägg
+Norsk näverlav
+Ostticka
+Ringlav
+Rynkskinn
+Skuggnål
+Ulltickeporing
+Blanksvart spiklav
+Blågrå</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Kravattensliden artfynd.xlsx", "Kravattensliden")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Kravattensliden karta.png", "Kravattensliden")</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Kravattensliden karta knärot.png", "Kravattensliden")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Kravattensliden FSC-klagomål.docx", "Kravattensliden")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Kravattensliden FSC-klagomål mail.docx", "Kravattensliden")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Kravattensliden tillsynsbegäran.docx", "Kravattensliden")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Kravattensliden tillsynsbegäran mail.docx", "Kravattensliden")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Kravattensliden prioriterade fågelarter.docx", "Kravattensliden")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lillgoberget</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11</v>
+      </c>
+      <c r="I4" t="n">
+        <v>27</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>26</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>58</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Lappticka
+Liten aspgelélav
+Läderdoftande fingersvamp
+Rynkskinn
+Ulltickeporing
+Gammelgransskål
+Garnlav
+Grantaggsvamp
+Granticka
+Grynig filtlav
+Grå blåbärsfältmätare
+Kortskaftad ärgspik
+Luddfingersvamp
+Lunglav
+Månlåsbräken
+Rosenticka
+Silverfläckspraktmal
+Skrovellav
+Spillkråka
+Stiftgelélav
+Talltita
+Tretåig hackspett
+Ullticka
+Vedtrappmossa
+Vitgrynig nållav
+Bollvitmossa
+Broskvaxing
+Bårdlav
+Dropptaggsvamp
+Granbarkgnagare
+Grönpyrola
+Gulnål
+Gulpudrad spiklav
+Korallblylav
+Korallrot
+Källpraktmossa
+Luddlav
+Norrlandslav
+Nästlav
+Skinnlav
+Småvaxing
+Spindelblomster
+Sprödvaxing
+Spädstarr
+Stor aspticka
+Stuplav
+Thomsons trägnagare
+Vedticka
+Vit vaxskivling
+Ängsfingersvamp
+Ängsvaxskivling
+Ögonpyrola
+Kungsfågel
+Lavskrika
+Fläcknycklar
+Nattviol
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lillgoberget artfynd.xlsx", "Lillgoberget")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lillgoberget karta.png", "Lillgoberget")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Lillgoberget karta knärot.png", "Lillgoberget")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lillgoberget FSC-klagomål.docx", "Lillgoberget")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lillgoberget FSC-klagomål mail.docx", "Lillgoberget")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lillgoberget tillsynsbegäran.docx", "Lillgoberget")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lillgoberget tillsynsbegäran mail.docx", "Lillgoberget")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Lillgoberget prioriterade fågelarter.docx", "Lillgoberget")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Röjdtjärnliden</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19</v>
+      </c>
+      <c r="J5" t="n">
         <v>25</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K5" t="n">
         <v>5</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>31</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P5" t="n">
         <v>6</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q5" t="n">
         <v>57</v>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Tornseglare
 Gräddporing
@@ -661,6 +1077,7 @@
 Gytterlav
 Korallblylav
 Kornig nållav
+Källmossa
 Norrlandslav
 Plattlummer
 Skinnlav
@@ -673,98 +1090,237 @@
 Huggorm
 Vanlig groda
 Fläcknycklar
-Grönvit nattviol
 Nattviol
 Revlummer</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Röjdtjärnliden artfynd.xlsx", "Röjdtjärnliden")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Röjdtjärnliden karta.png", "Röjdtjärnliden")</f>
         <v/>
       </c>
-      <c r="U2">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Röjdtjärnliden karta knärot.png", "Röjdtjärnliden")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Röjdtjärnliden FSC-klagomål.docx", "Röjdtjärnliden")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Röjdtjärnliden FSC-klagomål mail.docx", "Röjdtjärnliden")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Röjdtjärnliden tillsynsbegäran.docx", "Röjdtjärnliden")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Röjdtjärnliden tillsynsbegäran mail.docx", "Röjdtjärnliden")</f>
         <v/>
       </c>
-      <c r="Z2">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Röjdtjärnliden prioriterade fågelarter.docx", "Röjdtjärnliden")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fulberget</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>117.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17</v>
+      </c>
+      <c r="J6" t="n">
+        <v>26</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>29</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>50</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Rynkskinn
+Vitt vaxskinn
+Barkporlav
+Blek lundlav
+Brunpudrad nållav
+Doftskinn
+Dvärgbägarlav
+Gammelgransskål
+Garnlav
+Granticka
+Gränsticka
+Grå blåbärsfältmätare
+Harticka
+Kolflarnlav
+Kortskaftad ärgspik
+Leptoporus mollis
+Lunglav
+Mörk kolflarnlav
+Rosenticka
+Småflikig brosklav
+Spillkråka
+Stiftgelélav
+Talltita
+Tretåig hackspett
+Ullticka
+Vedskivlav
+Violettgrå tagellav
+Vitgrynig nållav
+Bårdlav
+Dvärgtufs
+Gulnål
+Kornig nållav
+Källpraktmossa
+Luddlav
+Mörk husmossa
+Rävticka
+Skinnlav
+Spindelblomster
+Stor aspticka
+Stuplav
+Thomsons trägnagare
+Trådticka
+Vedticka
+Vågbandad barkbock
+Ögonpyrola
+Lavskrika
+Vanlig padda
+Fläcknycklar
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Fulberget artfynd.xlsx", "Fulberget")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Fulberget karta.png", "Fulberget")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Fulberget karta knärot.png", "Fulberget")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Fulberget FSC-klagomål.docx", "Fulberget")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Fulberget FSC-klagomål mail.docx", "Fulberget")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Fulberget tillsynsbegäran.docx", "Fulberget")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Fulberget tillsynsbegäran mail.docx", "Fulberget")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Fulberget prioriterade fågelarter.docx", "Fulberget")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Arnträskbergen</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G7" t="n">
         <v>1125.5</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H7" t="n">
         <v>11</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I7" t="n">
         <v>17</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J7" t="n">
         <v>20</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K7" t="n">
         <v>9</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>29</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P7" t="n">
         <v>9</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q7" t="n">
         <v>50</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Finporing
@@ -818,228 +1374,89 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Arnträskbergen artfynd.xlsx", "Arnträskbergen")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Arnträskbergen karta.png", "Arnträskbergen")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Arnträskbergen FSC-klagomål.docx", "Arnträskbergen")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Arnträskbergen FSC-klagomål mail.docx", "Arnträskbergen")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Arnträskbergen tillsynsbegäran.docx", "Arnträskbergen")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Arnträskbergen tillsynsbegäran mail.docx", "Arnträskbergen")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Arnträskbergen prioriterade fågelarter.docx", "Arnträskbergen")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Fulberget</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sundsjölandet</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>117.3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17</v>
-      </c>
-      <c r="J4" t="n">
-        <v>26</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>28</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>49</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Rynkskinn
-Barkporlav
-Blek lundlav
-Brunpudrad nållav
-Doftskinn
-Dvärgbägarlav
-Gammelgransskål
-Garnlav
-Granticka
-Gränsticka
-Grå blåbärsfältmätare
-Harticka
-Kolflarnlav
-Kortskaftad ärgspik
-Leptoporus mollis
-Lunglav
-Mörk kolflarnlav
-Rosenticka
-Småflikig brosklav
-Spillkråka
-Stiftgelélav
-Talltita
-Tretåig hackspett
-Ullticka
-Vedskivlav
-Violettgrå tagellav
-Vitgrynig nållav
-Bårdlav
-Dvärgtufs
-Gulnål
-Kornig nållav
-Källpraktmossa
-Luddlav
-Mörk husmossa
-Rävticka
-Skinnlav
-Spindelblomster
-Stor aspticka
-Stuplav
-Thomsons trägnagare
-Trådticka
-Vedticka
-Vågbandad barkbock
-Ögonpyrola
-Lavskrika
-Vanlig padda
-Fläcknycklar
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Fulberget artfynd.xlsx", "Fulberget")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Fulberget karta.png", "Fulberget")</f>
-        <v/>
-      </c>
-      <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Fulberget karta knärot.png", "Fulberget")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Fulberget FSC-klagomål.docx", "Fulberget")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Fulberget FSC-klagomål mail.docx", "Fulberget")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Fulberget tillsynsbegäran.docx", "Fulberget")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Fulberget tillsynsbegäran mail.docx", "Fulberget")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Fulberget prioriterade fågelarter.docx", "Fulberget")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sundsjölandet</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="G8" t="n">
         <v>381.1</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H8" t="n">
         <v>7</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I8" t="n">
         <v>8</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J8" t="n">
         <v>27</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K8" t="n">
         <v>3</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>31</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P8" t="n">
         <v>4</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q8" t="n">
         <v>44</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Urskogsporing
 Fläckporing
@@ -1087,219 +1504,468 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Sundsjölandet artfynd.xlsx", "Sundsjölandet")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Sundsjölandet karta.png", "Sundsjölandet")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Sundsjölandet FSC-klagomål.docx", "Sundsjölandet")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Sundsjölandet FSC-klagomål mail.docx", "Sundsjölandet")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Sundsjölandet tillsynsbegäran.docx", "Sundsjölandet")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Sundsjölandet tillsynsbegäran mail.docx", "Sundsjölandet")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Sundsjölandet prioriterade fågelarter.docx", "Sundsjölandet")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Råtjärnberget</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lill-Lögdåberget O</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>240.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>17</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="G9" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>24</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>29</v>
+      </c>
+      <c r="P9" t="n">
         <v>5</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>22</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="Q9" t="n">
         <v>40</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Doftticka
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Tornseglare
 Fläckporing
 Gräddporing
 Knärot
 Rynkskinn
-Aspbarkgnagare
+Barkporlav
+Blanksvart spiklav
+Blågrå svartspik
+Brunpudrad nållav
+Corticaria interstitialis
+Dvärgbägarlav
+Ernobius explanatus
+Garnlav
+Granbarkmögelbagge
+Granticka
+Kolflarnlav
+Kortskaftad ärgspik
+Kådvaxskinn
+Lunglav
+Mörk kolflarnlav
+Skrovellav
+Spillkråka
+Talltita
+Tretåig hackspett
+Ullticka
+Vedflamlav
+Vedskivlav
+Violettgrå tagellav
+Vitgrynig nållav
+Dropptaggsvamp
+Luddlav
+Nästlav
+Skinnlav
+Spindelblomster
+Stuplav
+Vedticka
+Ögonpyrola
+Kungsfågel
+Lavskrika
+Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lill-Lögdåberget O artfynd.xlsx", "Lill-Lögdåberget O")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lill-Lögdåberget O karta.png", "Lill-Lögdåberget O")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Lill-Lögdåberget O karta knärot.png", "Lill-Lögdåberget O")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lill-Lögdåberget O FSC-klagomål.docx", "Lill-Lögdåberget O")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lill-Lögdåberget O FSC-klagomål mail.docx", "Lill-Lögdåberget O")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lill-Lögdåberget O tillsynsbegäran.docx", "Lill-Lögdåberget O")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lill-Lögdåberget O tillsynsbegäran mail.docx", "Lill-Lögdåberget O")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Lill-Lögdåberget O prioriterade fågelarter.docx", "Lill-Lögdåberget O")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Tällvattsåsen</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11</v>
+      </c>
+      <c r="J10" t="n">
+        <v>18</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>21</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>38</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Doftticka
+Knärot
+Rynkskinn
+Blanksvart spiklav
+Blågrå svartspik
+Brunpudrad nållav
+Gammelgransskål
+Garnlav
+Granticka
+Harticka
+Kolflarnlav
+Lunglav
+Mörk kolflarnlav
+Spillkråka
+Talltita
+Tretåig hackspett
+Ullticka
+Vedflamlav
+Vedskivlav
+Violettgrå tagellav
+Vitgrynig nållav
+Bronshjon
+Bårdlav
+Dropptaggsvamp
+Luddlav
+Nästlav
+Plattlummer
+Skinnlav
+Skuggblåslav
+Spindelblomster
+Stuplav
+Vedticka
+Kungsfågel
+Lavskrika
+Tjäder
+Vanlig padda
+Fläcknycklar
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Tällvattsåsen artfynd.xlsx", "Tällvattsåsen")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Tällvattsåsen karta.png", "Tällvattsåsen")</f>
+        <v/>
+      </c>
+      <c r="U10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Tällvattsåsen karta knärot.png", "Tällvattsåsen")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Tällvattsåsen FSC-klagomål.docx", "Tällvattsåsen")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Tällvattsåsen FSC-klagomål mail.docx", "Tällvattsåsen")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Tällvattsåsen tillsynsbegäran.docx", "Tällvattsåsen")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Tällvattsåsen tillsynsbegäran mail.docx", "Tällvattsåsen")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Tällvattsåsen prioriterade fågelarter.docx", "Tällvattsåsen")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lappberget</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>19</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>35</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Tornseglare
+Aspgelélav
+Fläckporing
+Blanksvart spiklav
 Doftskinn
 Dvärgbägarlav
 Gammelgransskål
 Garnlav
 Granticka
-Grön aspvedbock
 Kolflarnlav
-Lunglav
 Mörk kolflarnlav
-Reliktbock
-Rosenticka
-Rödvingetrast
-Småflikig brosklav
+Nordtagging
 Stiftgelélav
+Stjärntagging
 Talltita
+Tretåig hackspett
+Ullticka
+Vedflamlav
 Vedskivlav
-Aspvedgnagare
-Bårdlav
+Violettgrå tagellav
+Vitgrynig nållav
+Vitplätt
+Björksplintborre
 Dropptaggsvamp
 Luddlav
-Plattlummer
-Robust tickgnagare
-Rävticka
+Norrlandslav
+Nästlav
 Skinnlav
-Spindelblomster
-Spädstarr
-Stekelbock
-Stor aspticka
 Stuplav
-Ögonpyrola
-Pärluggla
+Trådticka
+Vedticka
 Tjäder
 Fläcknycklar
+Nattviol
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Råtjärnberget artfynd.xlsx", "Råtjärnberget")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Råtjä</f>
-        <v/>
-      </c>
-      <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Råtjärnberget karta knärot.png", "Råtjärnberget")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Råtjärnberget FSC-klagomål.docx", "Råtjärnberget")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Råtjärnberget FSC-klagomål mail.docx", "Råtjärnberget")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Råtjärnberget tillsynsbegäran.docx", "Råtjärnberget")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Råtjärnberget tillsynsbegäran mail.docx", "Råtjärnberget")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Råtjärnberget prioriterade fågelarter.docx", "Råtjärnberget")</f>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lappberget artfynd.xlsx", "Lappberget")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lappberget karta.png", "Lappberget")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lappberget FSC-klagomål.docx", "Lappberget")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lappberget FSC-klagomål mail.docx", "Lappberget")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lappberget tillsynsbegäran.docx", "Lappberget")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lappberget tillsynsbegäran mail.docx", "Lappberget")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Lappberget prioriterade fågelarter.docx", "Lappberget")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Oxliden</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G12" t="n">
         <v>258.7</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I12" t="n">
         <v>10</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J12" t="n">
         <v>23</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K12" t="n">
         <v>2</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>25</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P12" t="n">
         <v>2</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q12" t="n">
         <v>35</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Rotfingersvamp
@@ -1338,89 +2004,89 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Oxliden artfynd.xlsx", "Oxliden")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Oxliden karta.png", "Oxliden")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Oxliden FSC-klagomål.docx", "Oxliden")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Oxliden FSC-klagomål mail.docx", "Oxliden")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Oxliden tillsynsbegäran.docx", "Oxliden")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Oxliden tillsynsbegäran mail.docx", "Oxliden")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Oxliden prioriterade fågelarter.docx", "Oxliden")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Tyfallsjön</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G13" t="n">
         <v>103.6</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I13" t="n">
         <v>4</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J13" t="n">
         <v>22</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K13" t="n">
         <v>8</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>30</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P13" t="n">
         <v>8</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q13" t="n">
         <v>34</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Goliatmusseron
@@ -1458,211 +2124,89 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Tyfallsjön artfynd.xlsx", "Tyfallsjön")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Tyfallsjön karta.png", "Tyfallsjön")</f>
         <v/>
       </c>
-      <c r="U8">
+      <c r="U13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Tyfallsjön karta knärot.png", "Tyfallsjön")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Tyfallsjön FSC-klagomål.docx", "Tyfallsjön")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Tyfallsjön FSC-klagomål mail.docx", "Tyfallsjön")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Tyfallsjön tillsynsbegäran.docx", "Tyfallsjön")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Tyfallsjön tillsynsbegäran mail.docx", "Tyfallsjön")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lillgoberget</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Orratjärnskullen</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="G14" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="H14" t="n">
         <v>12</v>
       </c>
-      <c r="K9" t="n">
-        <v>4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>16</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>32</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Lappticka
-Liten aspgelélav
-Läderdoftande fingersvamp
-Gammelgransskål
-Garnlav
-Grantaggsvamp
-Granticka
-Grynig filtlav
-Luddfingersvamp
-Lunglav
-Månlåsbräken
-Spillkråka
-Tretåig hackspett
-Ullticka
-Vitgrynig nållav
-Broskvaxing
-Bårdlav
-Norrlandslav
-Småvaxing
-Spindelblomster
-Sprödvaxing
-Stor aspticka
-Stuplav
-Vedticka
-Vit vaxskivling
-Ängsfingersvamp
-Ängsvaxskivling
-Ögonpyrola
-Lavskrika
-Fläcknycklar
-Nattviol</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lillgoberget artfynd.xlsx", "Lillgoberget")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lillgoberget karta.png", "Lillgoberget")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Lillgoberget karta knärot.png", "Lillgoberget")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lillgoberget FSC-klagomål.docx", "Lillgoberget")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lillgoberget FSC-klagomål mail.docx", "Lillgoberget")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lillgoberget tillsynsbegäran.docx", "Lillgoberget")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lillgoberget tillsynsbegäran mail.docx", "Lillgoberget")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Lillgoberget prioriterade fågelarter.docx", "Lillgoberget")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Orratjärnskullen</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>12</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="I14" t="n">
         <v>5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J14" t="n">
         <v>20</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>21</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q14" t="n">
         <v>31</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Doftskinn
@@ -1697,93 +2241,93 @@
 Nattviol</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Orratjärnskullen artfynd.xlsx", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Orratjärnskullen karta.png", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="U10">
+      <c r="U14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Orratjärnskullen karta knärot.png", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Orratjärnskullen FSC-klagomål.docx", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Orratjärnskullen FSC-klagomål mail.docx", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Orratjärnskullen tillsynsbegäran.docx", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Orratjärnskullen tillsynsbegäran mail.docx", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Orratjärnskullen prioriterade fågelarter.docx", "Orratjärnskullen")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Glesskallberget</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G15" t="n">
         <v>771.6</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H15" t="n">
         <v>8</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I15" t="n">
         <v>8</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J15" t="n">
         <v>15</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K15" t="n">
         <v>5</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>20</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P15" t="n">
         <v>5</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q15" t="n">
         <v>30</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Lappticka
@@ -1817,89 +2361,89 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Glesskallberget artfynd.xlsx", "Glesskallberget")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Glesskallberget karta.png", "Glesskallberget")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Glesskallberget FSC-klagomål.docx", "Glesskallberget")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Glesskallberget FSC-klagomål mail.docx", "Glesskallberget")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Glesskallberget tillsynsbegäran.docx", "Glesskallberget")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Glesskallberget tillsynsbegäran mail.docx", "Glesskallberget")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Glesskallberget prioriterade fågelarter.docx", "Glesskallberget")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Hötjärnberget</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G16" t="n">
         <v>65.8</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H16" t="n">
         <v>5</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I16" t="n">
         <v>12</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J16" t="n">
         <v>13</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K16" t="n">
         <v>3</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>16</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P16" t="n">
         <v>3</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q16" t="n">
         <v>29</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Knärot
@@ -1932,211 +2476,93 @@
 Sångsvan</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Hötjärnberget artfynd.xlsx", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Hötjärnberget karta.png", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="U12">
+      <c r="U16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Hötjärnberget karta knärot.png", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Hötjärnberget FSC-klagomål.docx", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Hötjärnberget FSC-klagomål mail.docx", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Hötjärnberget tillsynsbegäran.docx", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Hötjärnberget tillsynsbegäran mail.docx", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="Z12">
+      <c r="Z16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Hötjärnberget prioriterade fågelarter.docx", "Hötjärnberget")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Stormyrbäcken</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Lögdeälven käringberget</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G17" t="n">
+        <v>534.2</v>
+      </c>
+      <c r="H17" t="n">
         <v>14</v>
       </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>14</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>19</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>13</v>
+      </c>
+      <c r="K17" t="n">
         <v>5</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>18</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
         <v>28</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Trådbrosklav
-Gräddticka
-Knärot
-Rynkskinn
-Ulltickeporing
-Gammelgransskål
-Garnlav
-Granticka
-Harticka
-Leptoporus mollis
-Luddfingersvamp
-Rosenticka
-Stjärntagging
-Tallticka
-Talltita
-Tretåig hackspett
-Ullticka
-Vedtrappmossa
-Vitgrynig nållav
-Bollvitmossa
-Källmossa
-Lappranunkel
-Mörk husmossa
-Spindelblomster
-Trådticka
-Vedticka
-Fläcknycklar
-Fläcknycklar × sumpnycklar</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Stormyrbäcken artfynd.xlsx", "Stormyrbäcken")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Stormyrbäcken karta.png", "Stormyrbäcken")</f>
-        <v/>
-      </c>
-      <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Stormyrbäcken karta knärot.png", "Stormyrbäcken")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Stormyrbäcken FSC-klagomål.docx", "Stormyrbäcken")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Stormyrbäcken FSC-klagomål mail.docx", "Stormyrbäcken")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Stormyrbäcken tillsynsbegäran.docx", "Stormyrbäcken")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Stormyrbäcken tillsynsbegäran mail.docx", "Stormyrbäcken")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Stormyrbäcken prioriterade fågelarter.docx", "Stormyrbäcken")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Lögdeälven käringberget</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>534.2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>14</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>13</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>18</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>28</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Goliatmusseron
 Gräddticka
@@ -2168,89 +2594,89 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lögdeälven käringberget artfynd.xlsx", "Lögdeälven käringberget")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lögdeälven käringberget karta.png", "Lögdeälven käringberget")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lögdeälven käringberget FSC-klagomål.docx", "Lögdeälven käringberget")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lögdeälven käringberget FSC-klagomål mail.docx", "Lögdeälven käringberget")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lögdeälven käringberget tillsynsbegäran.docx", "Lögdeälven käringberget")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lögdeälven käringberget tillsynsbegäran mail.docx", "Lögdeälven käringberget")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Lögdeälven käringberget prioriterade fågelarter.docx", "Lögdeälven käringberget")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Bastuberget</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G18" t="n">
         <v>170.1</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H18" t="n">
         <v>7</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I18" t="n">
         <v>8</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J18" t="n">
         <v>14</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K18" t="n">
         <v>2</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>16</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P18" t="n">
         <v>2</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q18" t="n">
         <v>27</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Knärot
@@ -2281,93 +2707,327 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Bastuberget artfynd.xlsx", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Bastuberget karta.png", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="U15">
+      <c r="U18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Bastuberget karta knärot.png", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Bastuberget FSC-klagomål.docx", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Bastuberget FSC-klagomål mail.docx", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Bastuberget tillsynsbegäran.docx", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Bastuberget tillsynsbegäran mail.docx", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Bastuberget prioriterade fågelarter.docx", "Bastuberget")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Stormyrbäcken</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>14</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>14</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>19</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>27</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Trådbrosklav
+Gräddticka
+Knärot
+Rynkskinn
+Ulltickeporing
+Gammelgransskål
+Garnlav
+Granticka
+Harticka
+Leptoporus mollis
+Luddfingersvamp
+Rosenticka
+Stjärntagging
+Tallticka
+Talltita
+Tretåig hackspett
+Ullticka
+Vedtrappmossa
+Vitgrynig nållav
+Bollvitmossa
+Källmossa
+Lappranunkel
+Mörk husmossa
+Spindelblomster
+Trådticka
+Vedticka
+Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Stormyrbäcken artfynd.xlsx", "Stormyrbäcken")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Stormyrbäcken karta.png", "Stormyrbäcken")</f>
+        <v/>
+      </c>
+      <c r="U19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Stormyrbäcken karta knärot.png", "Stormyrbäcken")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Stormyrbäcken FSC-klagomål.docx", "Stormyrbäcken")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Stormyrbäcken FSC-klagomål mail.docx", "Stormyrbäcken")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Stormyrbäcken tillsynsbegäran.docx", "Stormyrbäcken")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Stormyrbäcken tillsynsbegäran mail.docx", "Stormyrbäcken")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Stormyrbäcken prioriterade fågelarter.docx", "Stormyrbäcken")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>16</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>17</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>27</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Blanksvart spiklav
+Brunpudrad nållav
+Gammelgransskål
+Garnlav
+Granticka
+Harticka
+Järpe
+Kortskaftad ärgspik
+Lunglav
+Rosenticka
+Spillkråka
+Tretåig hackspett
+Ullticka
+Vedskivlav
+Violettgrå tagellav
+Vitgrynig nållav
+Bronshjon
+Bårdlav
+Gytterlav
+Luddlav
+Mörk husmossa
+Skinnlav
+Stuplav
+Vedticka
+Tjäder
+Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Rislidtjärnarna artfynd.xlsx", "Rislidtjärnarna")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Rislidtjärnarna karta.png", "Rislidtjärnarna")</f>
+        <v/>
+      </c>
+      <c r="U20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Rislidtjärnarna karta knärot.png", "Rislidtjärnarna")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Rislidtjärnarna FSC-klagomål.docx", "Rislidtjärnarna")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Rislidtjärnarna FSC-klagomål mail.docx", "Rislidtjärnarna")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Rislidtjärnarna tillsynsbegäran.docx", "Rislidtjärnarna")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Rislidtjärnarna tillsynsbegäran mail.docx", "Rislidtjärnarna")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Rislidtjärnarna prioriterade fågelarter.docx", "Rislidtjärnarna")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Vitstensberget</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G21" t="n">
         <v>93.3</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H21" t="n">
         <v>6</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I21" t="n">
         <v>9</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J21" t="n">
         <v>11</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K21" t="n">
         <v>2</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>13</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P21" t="n">
         <v>2</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q21" t="n">
         <v>25</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Fläckporing
@@ -2396,89 +3056,89 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Vitstensberget artfynd.xlsx", "Vitstensberget")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Vitstensberget karta.png", "Vitstensberget")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Vitstensberget FSC-klagomål.docx", "Vitstensberget")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Vitstensberget FSC-klagomål mail.docx", "Vitstensberget")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Vitstensberget tillsynsbegäran.docx", "Vitstensberget")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Vitstensberget tillsynsbegäran mail.docx", "Vitstensberget")</f>
         <v/>
       </c>
-      <c r="Z16">
+      <c r="Z21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Vitstensberget prioriterade fågelarter.docx", "Vitstensberget")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Gåsselmyran</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G22" t="n">
         <v>78.7</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I22" t="n">
         <v>2</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J22" t="n">
         <v>19</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K22" t="n">
         <v>4</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>23</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P22" t="n">
         <v>4</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q22" t="n">
         <v>25</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Smalfotad taggsvamp
@@ -2507,85 +3167,85 @@
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Gåsselmyran artfynd.xlsx", "Gåsselmyran")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Gåsselmyran karta.png", "Gåsselmyran")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Gåsselmyran FSC-klagomål.docx", "Gåsselmyran")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Gåsselmyran FSC-klagomål mail.docx", "Gåsselmyran")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Gåsselmyran tillsynsbegäran.docx", "Gåsselmyran")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Gåsselmyran tillsynsbegäran mail.docx", "Gåsselmyran")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Käringberget SV</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G23" t="n">
         <v>143.6</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H23" t="n">
         <v>3</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I23" t="n">
         <v>7</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J23" t="n">
         <v>14</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K23" t="n">
         <v>3</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>18</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P23" t="n">
         <v>3</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q23" t="n">
         <v>25</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Goliatmusseron
 Laxgröppa
@@ -2614,89 +3274,89 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Käringberget SV artfynd.xlsx", "Käringberget SV")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Käringberget SV karta.png", "Käringberget SV")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Käringberget SV FSC-klagomål.docx", "Käringberget SV")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Käringberget SV FSC-klagomål mail.docx", "Käringberget SV")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Käringberget SV tillsynsbegäran.docx", "Käringberget SV")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Käringberget SV tillsynsbegäran mail.docx", "Käringberget SV")</f>
         <v/>
       </c>
-      <c r="Z18">
+      <c r="Z23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Käringberget SV prioriterade fågelarter.docx", "Käringberget SV")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Björnberget NV</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G24" t="n">
         <v>80.59999999999999</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I24" t="n">
         <v>10</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J24" t="n">
         <v>13</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>13</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>24</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Blå taggsvamp
 Doftskinn
@@ -2724,89 +3384,89 @@
 Lavskrika</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Björnberget NV artfynd.xlsx", "Björnberget NV")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Björnberget NV karta.png", "Björnberget NV")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Björnberget NV FSC-klagomål.docx", "Björnberget NV")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Björnberget NV FSC-klagomål mail.docx", "Björnberget NV")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Björnberget NV tillsynsbegäran.docx", "Björnberget NV")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Björnberget NV tillsynsbegäran mail.docx", "Björnberget NV")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Björnberget NV prioriterade fågelarter.docx", "Björnberget NV")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Herrbergsliden norr</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G25" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H25" t="n">
         <v>4</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I25" t="n">
         <v>8</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J25" t="n">
         <v>10</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K25" t="n">
         <v>6</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>16</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P25" t="n">
         <v>6</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q25" t="n">
         <v>24</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Blackticka
 Doftticka
@@ -2834,93 +3494,93 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Herrbergsliden norr artfynd.xlsx", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Herrbergsliden norr karta.png", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="U20">
+      <c r="U25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Herrbergsliden norr karta knärot.png", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Herrbergsliden norr FSC-klagomål.docx", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Herrbergsliden norr FSC-klagomål mail.docx", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Herrbergsliden norr tillsynsbegäran.docx", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Herrbergsliden norr tillsynsbegäran mail.docx", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Herrbergsliden norr prioriterade fågelarter.docx", "Herrbergsliden norr")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Karlstjärnberget</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G26" t="n">
         <v>56.4</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I26" t="n">
         <v>4</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J26" t="n">
         <v>15</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K26" t="n">
         <v>3</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>18</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P26" t="n">
         <v>3</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q26" t="n">
         <v>23</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Aspfjädermossa
 Aspgelélav
@@ -2947,89 +3607,197 @@
 Orre</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Karlstjärnberget artfynd.xlsx", "Karlstjärnberget")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Karlstjärnberget karta.png", "Karlstjärnberget")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Karlstjärnberget FSC-klagomål.docx", "Karlstjärnberget")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Karlstjärnberget FSC-klagomål mail.docx", "Karlstjärnberget")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Karlstjärnberget tillsynsbegäran.docx", "Karlstjärnberget")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Karlstjärnberget tillsynsbegäran mail.docx", "Karlstjärnberget")</f>
         <v/>
       </c>
-      <c r="Z21">
+      <c r="Z26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Karlstjärnberget prioriterade fågelarter.docx", "Karlstjärnberget")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Baksjökullen</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>14</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>18</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>22</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Urskogsporing
+Doftticka
+Fläckporing
+Gräddporing
+Blanksvart spiklav
+Dvärgbägarlav
+Garnlav
+Kolflarnlav
+Lunglav
+Motaggsvamp
+Mörk kolflarnlav
+Skrovellav
+Talltaggsvamp
+Ullticka
+Vaddporing
+Vedflamlav
+Vedskivlav
+Vitplätt
+Bårdlav
+Dropptaggsvamp
+Luddlav
+Orre</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Baksjökullen artfynd.xlsx", "Baksjökullen")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Baksjökullen karta.png", "Baksjökullen")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Baksjökullen FSC-klagomål.docx", "Baksjökullen")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Baksjökullen FSC-klagomål mail.docx", "Baksjökullen")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Baksjökullen tillsynsbegäran.docx", "Baksjökullen")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Baksjökullen tillsynsbegäran mail.docx", "Baksjökullen")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Baksjökullen prioriterade fågelarter.docx", "Baksjökullen")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Stockbäcken</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G28" t="n">
         <v>63.2</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I28" t="n">
         <v>3</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J28" t="n">
         <v>13</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K28" t="n">
         <v>3</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>16</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P28" t="n">
         <v>3</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q28" t="n">
         <v>20</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
         <is>
           <t>Aspgelélav
 Lappticka
@@ -3053,407 +3821,89 @@
 Lavskrika</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Stockbäcken artfynd.xlsx", "Stockbäcken")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Stockbäcken karta.png", "Stockbäcken")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Stockbäcken FSC-klagomål.docx", "Stockbäcken")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Stockbäcken FSC-klagomål mail.docx", "Stockbäcken")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Stockbäcken tillsynsbegäran.docx", "Stockbäcken")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Stockbäcken tillsynsbegäran mail.docx", "Stockbäcken")</f>
         <v/>
       </c>
-      <c r="Z22">
+      <c r="Z28">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Stockbäcken prioriterade fågelarter.docx", "Stockbäcken")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Rislidtjärnarna</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Lögdaselet</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>121.7</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>7</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="G29" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4</v>
+      </c>
+      <c r="J29" t="n">
         <v>12</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K29" t="n">
         <v>1</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>13</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P29" t="n">
         <v>1</v>
       </c>
-      <c r="Q23" t="n">
-        <v>20</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Blanksvart spiklav
-Brunpudrad nållav
-Gammelgransskål
-Garnlav
-Granticka
-Harticka
-Kortskaftad ärgspik
-Lunglav
-Rosenticka
-Tretåig hackspett
-Ullticka
-Violettgrå tagellav
-Bårdlav
-Gytterlav
-Luddlav
-Mörk husmossa
-Skinnlav
-Stuplav
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Rislidtjärnarna artfynd.xlsx", "Rislidtjärnarna")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Rislidtjärnarna karta.png", "Rislidtjärnarna")</f>
-        <v/>
-      </c>
-      <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Rislidtjärnarna karta knärot.png", "Rislidtjärnarna")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Rislidtjärnarna FSC-klagomål.docx", "Rislidtjärnarna")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Rislidtjärnarna FSC-klagomål mail.docx", "Rislidtjärnarna")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Rislidtjärnarna tillsynsbegäran.docx", "Rislidtjärnarna")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Rislidtjärnarna tillsynsbegäran mail.docx", "Rislidtjärnarna")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Rislidtjärnarna prioriterade fågelarter.docx", "Rislidtjärnarna")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Kravattensliden</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>535.2</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>10</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>15</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>20</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Kristallticka
-Lappticka
-Långskägg
-Ostticka
-Rynkskinn
-Doftskinn
-Granticka
-Gränsticka
-Harticka
-Lunglav
-Rosenticka
-Tretåig hackspett
-Ullticka
-Violettgrå tagellav
-Violmussling
-Blodticka
-Trådticka
-Vedticka
-Lavskrika
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Kravattensliden artfynd.xlsx", "Kravattensliden")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Kravattensliden karta.png", "Kravattensliden")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Kravattensliden FSC-klagomål.docx", "Kravattensliden")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Kravattensliden FSC-klagomål mail.docx", "Kravattensliden")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Kravattensliden tillsynsbegäran.docx", "Kravattensliden")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Kravattensliden tillsynsbegäran mail.docx", "Kravattensliden")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Kravattensliden prioriterade fågelarter.docx", "Kravattensliden")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Baksjökullen</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>152.1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>13</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>17</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>20</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Urskogsporing
-Doftticka
-Fläckporing
-Gräddporing
-Blanksvart spiklav
-Dvärgbägarlav
-Garnlav
-Kolflarnlav
-Lunglav
-Motaggsvamp
-Mörk kolflarnlav
-Skrovellav
-Talltaggsvamp
-Ullticka
-Vaddporing
-Vedskivlav
-Vitplätt
-Bårdlav
-Dropptaggsvamp
-Luddlav</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Baksjökullen artfynd.xlsx", "Baksjökullen")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Baksjökullen karta.png", "Baksjökullen")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Baksjökullen FSC-klagomål.docx", "Baksjökullen")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Baksjökullen FSC-klagomål mail.docx", "Baksjökullen")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Baksjökullen tillsynsbegäran.docx", "Baksjökullen")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Baksjökullen tillsynsbegäran mail.docx", "Baksjökullen")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Lögdaselet</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>166.5</v>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>12</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>13</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="Q29" t="n">
         <v>18</v>
       </c>
-      <c r="R26" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Blanksvart spiklav
@@ -3475,93 +3925,93 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S29">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lögdaselet artfynd.xlsx", "Lögdaselet")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T29">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lögdaselet karta.png", "Lögdaselet")</f>
         <v/>
       </c>
-      <c r="U26">
+      <c r="U29">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Lögdaselet karta knärot.png", "Lögdaselet")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V29">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lögdaselet FSC-klagomål.docx", "Lögdaselet")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W29">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lögdaselet FSC-klagomål mail.docx", "Lögdaselet")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X29">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lögdaselet tillsynsbegäran.docx", "Lögdaselet")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y29">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lögdaselet tillsynsbegäran mail.docx", "Lögdaselet")</f>
         <v/>
       </c>
-      <c r="Z26">
+      <c r="Z29">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Lögdaselet prioriterade fågelarter.docx", "Lögdaselet")</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Holmtjärnen</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G30" t="n">
         <v>105.2</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J30" t="n">
         <v>14</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K30" t="n">
         <v>3</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>17</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P30" t="n">
         <v>3</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q30" t="n">
         <v>18</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Goliatmusseron
@@ -3583,89 +4033,89 @@
 Bårdlav</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Holmtjärnen artfynd.xlsx", "Holmtjärnen")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Holmtjärnen karta.png", "Holmtjärnen")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Holmtjärnen FSC-klagomål.docx", "Holmtjärnen")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Holmtjärnen FSC-klagomål mail.docx", "Holmtjärnen")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Holmtjärnen tillsynsbegäran.docx", "Holmtjärnen")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Holmtjärnen tillsynsbegäran mail.docx", "Holmtjärnen")</f>
         <v/>
       </c>
-      <c r="Z27">
+      <c r="Z30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Holmtjärnen prioriterade fågelarter.docx", "Holmtjärnen")</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Björnberget SV</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G31" t="n">
         <v>57.7</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H31" t="n">
         <v>2</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I31" t="n">
         <v>4</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J31" t="n">
         <v>10</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>10</v>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>16</v>
       </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Dvärgbägarlav
 Gammelgransskål
@@ -3685,89 +4135,89 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Björnberget SV artfynd.xlsx", "Björnberget SV")</f>
         <v/>
       </c>
-      <c r="T28">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Björnberget SV karta.png", "Björnberget SV")</f>
         <v/>
       </c>
-      <c r="V28">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Björnberget SV FSC-klagomål.docx", "Björnberget SV")</f>
         <v/>
       </c>
-      <c r="W28">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Björnberget SV FSC-klagomål mail.docx", "Björnberget SV")</f>
         <v/>
       </c>
-      <c r="X28">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Björnberget SV tillsynsbegäran.docx", "Björnberget SV")</f>
         <v/>
       </c>
-      <c r="Y28">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Björnberget SV tillsynsbegäran mail.docx", "Björnberget SV")</f>
         <v/>
       </c>
-      <c r="Z28">
+      <c r="Z31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Björnberget SV prioriterade fågelarter.docx", "Björnberget SV")</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Gålgoberget</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G32" t="n">
         <v>57.1</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H32" t="n">
         <v>2</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I32" t="n">
         <v>4</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J32" t="n">
         <v>10</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K32" t="n">
         <v>1</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>11</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P32" t="n">
         <v>1</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q32" t="n">
         <v>16</v>
       </c>
-      <c r="R29" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Blanksvart spiklav
@@ -3787,93 +4237,93 @@
 Lavskrika</t>
         </is>
       </c>
-      <c r="S29">
+      <c r="S32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Gålgoberget artfynd.xlsx", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="T29">
+      <c r="T32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Gålgoberget karta.png", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="U29">
+      <c r="U32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Gålgoberget karta knärot.png", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="V29">
+      <c r="V32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Gålgoberget FSC-klagomål.docx", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="W29">
+      <c r="W32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Gålgoberget FSC-klagomål mail.docx", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="X29">
+      <c r="X32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Gålgoberget tillsynsbegäran.docx", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="Y29">
+      <c r="Y32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Gålgoberget tillsynsbegäran mail.docx", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="Z29">
+      <c r="Z32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Gålgoberget prioriterade fågelarter.docx", "Gålgoberget")</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Aspmyrbäcken</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="G33" t="n">
         <v>356.4</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H33" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I33" t="n">
         <v>4</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J33" t="n">
         <v>9</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K33" t="n">
         <v>3</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>12</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P33" t="n">
         <v>3</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q33" t="n">
         <v>16</v>
       </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R33" s="2" t="inlineStr">
         <is>
           <t>Lappticka
 Ostticka
@@ -3893,89 +4343,89 @@
 Trådticka</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Aspmyrbäcken artfynd.xlsx", "Aspmyrbäcken")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Aspmyrbäcken karta.png", "Aspmyrbäcken")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Aspmyrbäcken FSC-klagomål.docx", "Aspmyrbäcken")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Aspmyrbäcken FSC-klagomål mail.docx", "Aspmyrbäcken")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Aspmyrbäcken tillsynsbegäran.docx", "Aspmyrbäcken")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Aspmyrbäcken tillsynsbegäran mail.docx", "Aspmyrbäcken")</f>
         <v/>
       </c>
-      <c r="Z30">
+      <c r="Z33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Aspmyrbäcken prioriterade fågelarter.docx", "Aspmyrbäcken")</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Gubbmyran</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G34" t="n">
         <v>186</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>2</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J34" t="n">
         <v>11</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K34" t="n">
         <v>3</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>14</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P34" t="n">
         <v>3</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q34" t="n">
         <v>16</v>
       </c>
-      <c r="R31" s="2" t="inlineStr">
+      <c r="R34" s="2" t="inlineStr">
         <is>
           <t>Lappticka
 Liten sotlav
@@ -3995,85 +4445,85 @@
 Trådticka</t>
         </is>
       </c>
-      <c r="S31">
+      <c r="S34">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Gubbmyran artfynd.xlsx", "Gubbmyran")</f>
         <v/>
       </c>
-      <c r="T31">
+      <c r="T34">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Gubbmyran karta.png", "Gubbmyran")</f>
         <v/>
       </c>
-      <c r="V31">
+      <c r="V34">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Gubbmyran FSC-klagomål.docx", "Gubbmyran")</f>
         <v/>
       </c>
-      <c r="W31">
+      <c r="W34">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Gubbmyran FSC-klagomål mail.docx", "Gubbmyran")</f>
         <v/>
       </c>
-      <c r="X31">
+      <c r="X34">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Gubbmyran tillsynsbegäran.docx", "Gubbmyran")</f>
         <v/>
       </c>
-      <c r="Y31">
+      <c r="Y34">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Gubbmyran tillsynsbegäran mail.docx", "Gubbmyran")</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Kälkåsen</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="G35" t="n">
         <v>58.4</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H35" t="n">
         <v>2</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I35" t="n">
         <v>5</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J35" t="n">
         <v>7</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K35" t="n">
         <v>3</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>10</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P35" t="n">
         <v>3</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q35" t="n">
         <v>15</v>
       </c>
-      <c r="R32" s="2" t="inlineStr">
+      <c r="R35" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Gräddporing
@@ -4092,93 +4542,93 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S32">
+      <c r="S35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Kälkåsen artfynd.xlsx", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="T32">
+      <c r="T35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Kälkåsen karta.png", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="U32">
+      <c r="U35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Kälkåsen karta knärot.png", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="V32">
+      <c r="V35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Kälkåsen FSC-klagomål.docx", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="W32">
+      <c r="W35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Kälkåsen FSC-klagomål mail.docx", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="X32">
+      <c r="X35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Kälkåsen tillsynsbegäran.docx", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="Y32">
+      <c r="Y35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Kälkåsen tillsynsbegäran mail.docx", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="Z32">
+      <c r="Z35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Kälkåsen prioriterade fågelarter.docx", "Kälkåsen")</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Trollberget</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G36" t="n">
         <v>110.6</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>6</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J36" t="n">
         <v>9</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>9</v>
       </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>15</v>
       </c>
-      <c r="R33" s="2" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>Doftskinn
 Granticka
@@ -4197,85 +4647,85 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S33">
+      <c r="S36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Trollberget artfynd.xlsx", "Trollberget")</f>
         <v/>
       </c>
-      <c r="T33">
+      <c r="T36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Trollberget karta.png", "Trollberget")</f>
         <v/>
       </c>
-      <c r="V33">
+      <c r="V36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Trollberget FSC-klagomål.docx", "Trollberget")</f>
         <v/>
       </c>
-      <c r="W33">
+      <c r="W36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Trollberget FSC-klagomål mail.docx", "Trollberget")</f>
         <v/>
       </c>
-      <c r="X33">
+      <c r="X36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Trollberget tillsynsbegäran.docx", "Trollberget")</f>
         <v/>
       </c>
-      <c r="Y33">
+      <c r="Y36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Trollberget tillsynsbegäran mail.docx", "Trollberget")</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Björnberget N</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="G37" t="n">
         <v>29.2</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>4</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J37" t="n">
         <v>9</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K37" t="n">
         <v>1</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>10</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P37" t="n">
         <v>1</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q37" t="n">
         <v>14</v>
       </c>
-      <c r="R34" s="2" t="inlineStr">
+      <c r="R37" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Blå taggsvamp
@@ -4293,85 +4743,85 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S34">
+      <c r="S37">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Björnberget N artfynd.xlsx", "Björnberget N")</f>
         <v/>
       </c>
-      <c r="T34">
+      <c r="T37">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Björnberget N karta.png", "Björnberget N")</f>
         <v/>
       </c>
-      <c r="V34">
+      <c r="V37">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Björnberget N FSC-klagomål.docx", "Björnberget N")</f>
         <v/>
       </c>
-      <c r="W34">
+      <c r="W37">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Björnberget N FSC-klagomål mail.docx", "Björnberget N")</f>
         <v/>
       </c>
-      <c r="X34">
+      <c r="X37">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Björnberget N tillsynsbegäran.docx", "Björnberget N")</f>
         <v/>
       </c>
-      <c r="Y34">
+      <c r="Y37">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Björnberget N tillsynsbegäran mail.docx", "Björnberget N")</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Gåstjärnen</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="G38" t="n">
         <v>62.7</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>11</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K38" t="n">
         <v>3</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>14</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P38" t="n">
         <v>3</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q38" t="n">
         <v>14</v>
       </c>
-      <c r="R35" s="2" t="inlineStr">
+      <c r="R38" s="2" t="inlineStr">
         <is>
           <t>Goliatmusseron
 Knärot
@@ -4389,185 +4839,89 @@
 Vitgrynig nållav</t>
         </is>
       </c>
-      <c r="S35">
+      <c r="S38">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Gåstjärnen artfynd.xlsx", "Gåstjärnen")</f>
         <v/>
       </c>
-      <c r="T35">
+      <c r="T38">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Gåstjärnen karta.png", "Gåstjärnen")</f>
         <v/>
       </c>
-      <c r="U35">
+      <c r="U38">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Gåstjärnen karta knärot.png", "Gåstjärnen")</f>
         <v/>
       </c>
-      <c r="V35">
+      <c r="V38">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Gåstjärnen FSC-klagomål.docx", "Gåstjärnen")</f>
         <v/>
       </c>
-      <c r="W35">
+      <c r="W38">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Gåstjärnen FSC-klagomål mail.docx", "Gåstjärnen")</f>
         <v/>
       </c>
-      <c r="X35">
+      <c r="X38">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Gåstjärnen tillsynsbegäran.docx", "Gåstjärnen")</f>
         <v/>
       </c>
-      <c r="Y35">
+      <c r="Y38">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Gåstjärnen tillsynsbegäran mail.docx", "Gåstjärnen")</f>
         <v/>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Lappberget</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Stor-Svartliden</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G36" t="n">
-        <v>60.4</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="G39" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
         <v>4</v>
       </c>
-      <c r="J36" t="n">
-        <v>10</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>10</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>14</v>
-      </c>
-      <c r="R36" s="2" t="inlineStr">
-        <is>
-          <t>Doftskinn
-Gammelgransskål
-Garnlav
-Granticka
-Kolflarnlav
-Mörk kolflarnlav
-Stjärntagging
-Ullticka
-Violettgrå tagellav
-Vitgrynig nållav
-Luddlav
-Skinnlav
-Stuplav
-Trådticka</t>
-        </is>
-      </c>
-      <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lappberget artfynd.xlsx", "Lappberget")</f>
-        <v/>
-      </c>
-      <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lappberget karta.png", "Lappberget")</f>
-        <v/>
-      </c>
-      <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lappberget FSC-klagomål.docx", "Lappberget")</f>
-        <v/>
-      </c>
-      <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lappberget FSC-klagomål mail.docx", "Lappberget")</f>
-        <v/>
-      </c>
-      <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lappberget tillsynsbegäran.docx", "Lappberget")</f>
-        <v/>
-      </c>
-      <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lappberget tillsynsbegäran mail.docx", "Lappberget")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Stor-Svartliden</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>187.8</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" t="n">
+      <c r="J39" t="n">
         <v>7</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K39" t="n">
         <v>1</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>8</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P39" t="n">
         <v>1</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q39" t="n">
         <v>13</v>
       </c>
-      <c r="R37" s="2" t="inlineStr">
+      <c r="R39" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Doftskinn
@@ -4584,85 +4938,85 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S37">
+      <c r="S39">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Stor-Svartliden artfynd.xlsx", "Stor-Svartliden")</f>
         <v/>
       </c>
-      <c r="T37">
+      <c r="T39">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Stor-Svartliden karta.png", "Stor-Svartliden")</f>
         <v/>
       </c>
-      <c r="V37">
+      <c r="V39">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Stor-Svartliden FSC-klagomål.docx", "Stor-Svartliden")</f>
         <v/>
       </c>
-      <c r="W37">
+      <c r="W39">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Stor-Svartliden FSC-klagomål mail.docx", "Stor-Svartliden")</f>
         <v/>
       </c>
-      <c r="X37">
+      <c r="X39">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Stor-Svartliden tillsynsbegäran.docx", "Stor-Svartliden")</f>
         <v/>
       </c>
-      <c r="Y37">
+      <c r="Y39">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Stor-Svartliden tillsynsbegäran mail.docx", "Stor-Svartliden")</f>
         <v/>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Kläpptjärnen</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G38" t="n">
+      <c r="G40" t="n">
         <v>113.3</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>3</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J40" t="n">
         <v>8</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K40" t="n">
         <v>2</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>10</v>
       </c>
-      <c r="P38" t="n">
+      <c r="P40" t="n">
         <v>2</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="Q40" t="n">
         <v>13</v>
       </c>
-      <c r="R38" s="2" t="inlineStr">
+      <c r="R40" s="2" t="inlineStr">
         <is>
           <t>Goliatmusseron
 Jättemusseron
@@ -4679,85 +5033,85 @@
 Tallfingersvamp</t>
         </is>
       </c>
-      <c r="S38">
+      <c r="S40">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Kläpptjärnen artfynd.xlsx", "Kläpptjärnen")</f>
         <v/>
       </c>
-      <c r="T38">
+      <c r="T40">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Kläpptjärnen karta.png", "Kläpptjärnen")</f>
         <v/>
       </c>
-      <c r="V38">
+      <c r="V40">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Kläpptjärnen FSC-klagomål.docx", "Kläpptjärnen")</f>
         <v/>
       </c>
-      <c r="W38">
+      <c r="W40">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Kläpptjärnen FSC-klagomål mail.docx", "Kläpptjärnen")</f>
         <v/>
       </c>
-      <c r="X38">
+      <c r="X40">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Kläpptjärnen tillsynsbegäran.docx", "Kläpptjärnen")</f>
         <v/>
       </c>
-      <c r="Y38">
+      <c r="Y40">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Kläpptjärnen tillsynsbegäran mail.docx", "Kläpptjärnen")</f>
         <v/>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>Stensjöåsen</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G39" t="n">
+      <c r="G41" t="n">
         <v>117.8</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>3</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J41" t="n">
         <v>7</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K41" t="n">
         <v>2</v>
       </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>9</v>
       </c>
-      <c r="P39" t="n">
+      <c r="P41" t="n">
         <v>2</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q41" t="n">
         <v>12</v>
       </c>
-      <c r="R39" s="2" t="inlineStr">
+      <c r="R41" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Tajgataggsvamp
@@ -4773,85 +5127,85 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S39">
+      <c r="S41">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Stensjöåsen artfynd.xlsx", "Stensjöåsen")</f>
         <v/>
       </c>
-      <c r="T39">
+      <c r="T41">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Stensjöåsen karta.png", "Stensjöåsen")</f>
         <v/>
       </c>
-      <c r="V39">
+      <c r="V41">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Stensjöåsen FSC-klagomål.docx", "Stensjöåsen")</f>
         <v/>
       </c>
-      <c r="W39">
+      <c r="W41">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Stensjöåsen FSC-klagomål mail.docx", "Stensjöåsen")</f>
         <v/>
       </c>
-      <c r="X39">
+      <c r="X41">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Stensjöåsen tillsynsbegäran.docx", "Stensjöåsen")</f>
         <v/>
       </c>
-      <c r="Y39">
+      <c r="Y41">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Stensjöåsen tillsynsbegäran mail.docx", "Stensjöåsen")</f>
         <v/>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>Blåbergssjön</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G40" t="n">
+      <c r="G42" t="n">
         <v>27.1</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>3</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J42" t="n">
         <v>7</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>7</v>
       </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>10</v>
       </c>
-      <c r="R40" s="2" t="inlineStr">
+      <c r="R42" s="2" t="inlineStr">
         <is>
           <t>Blanksvart spiklav
 Dvärgbägarlav
@@ -4865,85 +5219,85 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S40">
+      <c r="S42">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Blåbergssjön artfynd.xlsx", "Blåbergssjön")</f>
         <v/>
       </c>
-      <c r="T40">
+      <c r="T42">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Blåbergssjön karta.png", "Blåbergssjön")</f>
         <v/>
       </c>
-      <c r="V40">
+      <c r="V42">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Blåbergssjön FSC-klagomål.docx", "Blåbergssjön")</f>
         <v/>
       </c>
-      <c r="W40">
+      <c r="W42">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Blåbergssjön FSC-klagomål mail.docx", "Blåbergssjön")</f>
         <v/>
       </c>
-      <c r="X40">
+      <c r="X42">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Blåbergssjön tillsynsbegäran.docx", "Blåbergssjön")</f>
         <v/>
       </c>
-      <c r="Y40">
+      <c r="Y42">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Blåbergssjön tillsynsbegäran mail.docx", "Blåbergssjön")</f>
         <v/>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>Käringberget SO</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G41" t="n">
+      <c r="G43" t="n">
         <v>143.1</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>3</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J43" t="n">
         <v>3</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>3</v>
       </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>6</v>
       </c>
-      <c r="R41" s="2" t="inlineStr">
+      <c r="R43" s="2" t="inlineStr">
         <is>
           <t>Lunglav
 Ullticka
@@ -4953,177 +5307,85 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S41">
+      <c r="S43">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Käringberget SO artfynd.xlsx", "Käringberget SO")</f>
         <v/>
       </c>
-      <c r="T41">
+      <c r="T43">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Käringberget SO karta.png", "Käringberget SO")</f>
         <v/>
       </c>
-      <c r="V41">
+      <c r="V43">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Käringberget SO FSC-klagomål.docx", "Käringberget SO")</f>
         <v/>
       </c>
-      <c r="W41">
+      <c r="W43">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Käringberget SO FSC-klagomål mail.docx", "Käringberget SO")</f>
         <v/>
       </c>
-      <c r="X41">
+      <c r="X43">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Käringberget SO tillsynsbegäran.docx", "Käringberget SO")</f>
         <v/>
       </c>
-      <c r="Y41">
+      <c r="Y43">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Käringberget SO tillsynsbegäran mail.docx", "Käringberget SO")</f>
         <v/>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Tällvattsåsen</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Alingsås</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G42" t="n">
-        <v>190.3</v>
-      </c>
-      <c r="H42" t="n">
+      <c r="G44" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3</v>
+      </c>
+      <c r="K44" t="n">
         <v>1</v>
       </c>
-      <c r="I42" t="n">
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>4</v>
+      </c>
+      <c r="P44" t="n">
         <v>1</v>
       </c>
-      <c r="J42" t="n">
-        <v>3</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>5</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>6</v>
-      </c>
-      <c r="R42" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Rynkskinn
-Garnlav
-Granticka
-Lunglav
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Tällvattsåsen artfynd.xlsx", "Tällvattsåsen")</f>
-        <v/>
-      </c>
-      <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Tällvattsåsen karta.png", "Tällvattsåsen")</f>
-        <v/>
-      </c>
-      <c r="U42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Tällvattsåsen karta knärot.png", "Tällvattsåsen")</f>
-        <v/>
-      </c>
-      <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Tällvattsåsen FSC-klagomål.docx", "Tällvattsåsen")</f>
-        <v/>
-      </c>
-      <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Tällvattsåsen FSC-klagomål mail.docx", "Tällvattsåsen")</f>
-        <v/>
-      </c>
-      <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Tällvattsåsen tillsynsbegäran.docx", "Tällvattsåsen")</f>
-        <v/>
-      </c>
-      <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Tällvattsåsen tillsynsbegäran mail.docx", "Tällvattsåsen")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Alingsås</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
+      <c r="Q44" t="n">
         <v>4</v>
       </c>
-      <c r="P43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
-      <c r="R43" s="2" t="inlineStr">
+      <c r="R44" s="2" t="inlineStr">
         <is>
           <t>Liten sotlav
 Doftskinn
@@ -5131,85 +5393,85 @@
 Ullticka</t>
         </is>
       </c>
-      <c r="S43">
+      <c r="S44">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Alingsås artfynd.xlsx", "Alingsås")</f>
         <v/>
       </c>
-      <c r="T43">
+      <c r="T44">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Alingsås karta.png", "Alingsås")</f>
         <v/>
       </c>
-      <c r="V43">
+      <c r="V44">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Alingsås FSC-klagomål.docx", "Alingsås")</f>
         <v/>
       </c>
-      <c r="W43">
+      <c r="W44">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Alingsås FSC-klagomål mail.docx", "Alingsås")</f>
         <v/>
       </c>
-      <c r="X43">
+      <c r="X44">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Alingsås tillsynsbegäran.docx", "Alingsås")</f>
         <v/>
       </c>
-      <c r="Y43">
+      <c r="Y44">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Alingsås tillsynsbegäran mail.docx", "Alingsås")</f>
         <v/>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>Norrnäs</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G44" t="n">
+      <c r="G45" t="n">
         <v>48.6</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
         <v>4</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>4</v>
       </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>4</v>
       </c>
-      <c r="R44" s="2" t="inlineStr">
+      <c r="R45" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Granticka
@@ -5217,85 +5479,85 @@
 Ullticka</t>
         </is>
       </c>
-      <c r="S44">
+      <c r="S45">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Norrnäs artfynd.xlsx", "Norrnäs")</f>
         <v/>
       </c>
-      <c r="T44">
+      <c r="T45">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Norrnäs karta.png", "Norrnäs")</f>
         <v/>
       </c>
-      <c r="V44">
+      <c r="V45">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Norrnäs FSC-klagomål.docx", "Norrnäs")</f>
         <v/>
       </c>
-      <c r="W44">
+      <c r="W45">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Norrnäs FSC-klagomål mail.docx", "Norrnäs")</f>
         <v/>
       </c>
-      <c r="X44">
+      <c r="X45">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Norrnäs tillsynsbegäran.docx", "Norrnäs")</f>
         <v/>
       </c>
-      <c r="Y44">
+      <c r="Y45">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Norrnäs tillsynsbegäran mail.docx", "Norrnäs")</f>
         <v/>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Lill-Smaltjärnen</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G45" t="n">
+      <c r="G46" t="n">
         <v>174.7</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J46" t="n">
         <v>3</v>
       </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>3</v>
       </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>4</v>
       </c>
-      <c r="R45" s="2" t="inlineStr">
+      <c r="R46" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Lunglav
@@ -5303,85 +5565,85 @@
 Luddlav</t>
         </is>
       </c>
-      <c r="S45">
+      <c r="S46">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lill-Smaltjärnen artfynd.xlsx", "Lill-Smaltjärnen")</f>
         <v/>
       </c>
-      <c r="T45">
+      <c r="T46">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lill-Smaltjärnen karta.png", "Lill-Smaltjärnen")</f>
         <v/>
       </c>
-      <c r="V45">
+      <c r="V46">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lill-Smaltjärnen FSC-klagomål.docx", "Lill-Smaltjärnen")</f>
         <v/>
       </c>
-      <c r="W45">
+      <c r="W46">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lill-Smaltjärnen FSC-klagomål mail.docx", "Lill-Smaltjärnen")</f>
         <v/>
       </c>
-      <c r="X45">
+      <c r="X46">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lill-Smaltjärnen tillsynsbegäran.docx", "Lill-Smaltjärnen")</f>
         <v/>
       </c>
-      <c r="Y45">
+      <c r="Y46">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lill-Smaltjärnen tillsynsbegäran mail.docx", "Lill-Smaltjärnen")</f>
         <v/>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="47" ht="15" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>Stornäsholmen</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>45865</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G46" t="n">
+      <c r="G47" t="n">
         <v>25.5</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>1</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J47" t="n">
         <v>2</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K47" t="n">
         <v>1</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
         <v>3</v>
       </c>
-      <c r="P46" t="n">
+      <c r="P47" t="n">
         <v>1</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q47" t="n">
         <v>4</v>
       </c>
-      <c r="R46" s="2" t="inlineStr">
+      <c r="R47" s="2" t="inlineStr">
         <is>
           <t>Rynkskinn
 Rosenticka
@@ -5389,130 +5651,44 @@
 Tibast</t>
         </is>
       </c>
-      <c r="S46">
+      <c r="S47">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Stornäsholmen artfynd.xlsx", "Stornäsholmen")</f>
         <v/>
       </c>
-      <c r="T46">
+      <c r="T47">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Stornäsholmen karta.png", "Stornäsholmen")</f>
         <v/>
       </c>
-      <c r="V46">
+      <c r="V47">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Stornäsholmen FSC-klagomål.docx", "Stornäsholmen")</f>
         <v/>
       </c>
-      <c r="W46">
+      <c r="W47">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Stornäsholmen FSC-klagomål mail.docx", "Stornäsholmen")</f>
         <v/>
       </c>
-      <c r="X46">
+      <c r="X47">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Stornäsholmen tillsynsbegäran.docx", "Stornäsholmen")</f>
         <v/>
       </c>
-      <c r="Y46">
+      <c r="Y47">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Stornäsholmen tillsynsbegäran mail.docx", "Stornäsholmen")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Lill-Lögdåberget O</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>4</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" s="2" t="inlineStr">
-        <is>
-          <t>Rynkskinn
-Corticaria interstitialis
-Ernobius explanatus
-Granbarkmögelbagge</t>
-        </is>
-      </c>
-      <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lill-Lögdåberget O artfynd.xlsx", "Lill-Lögdåberget O")</f>
-        <v/>
-      </c>
-      <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lill-Lögdåberget O karta.png", "Lill-Lögdåberget O")</f>
-        <v/>
-      </c>
-      <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lill-Lögdåberget O FSC-klagomål.docx", "Lill-Lögdåberget O")</f>
-        <v/>
-      </c>
-      <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lill-Lögdåberget O FSC-klagomål mail.docx", "Lill-Lögdåberget O")</f>
-        <v/>
-      </c>
-      <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lill-Lögdåberget O tillsynsbegäran.docx", "Lill-Lögdåberget O")</f>
-        <v/>
-      </c>
-      <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lill-Lögdåberget O tillsynsbegäran mail.docx", "Lill-Lögdåberget O")</f>
         <v/>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Vitstensberget V</t>
+          <t>Johannesbomyran</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
@@ -5521,19 +5697,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>112.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -5548,55 +5724,60 @@
         <v>2</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R48" s="2" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav
-Violettgrå tagellav</t>
+          <t>Knärot
+Mörk kolflarnlav
+Stuplav</t>
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Vitstensberget V artfynd.xlsx", "Vitstensberget V")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Johannesbomyran artfynd.xlsx", "Johannesbomyran")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Vitstensberget V karta.png", "Vitstensberget V")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Johannesbomyran karta.png", "Johannesbomyran")</f>
+        <v/>
+      </c>
+      <c r="U48">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Johannesbomyran karta knärot.png", "Johannesbomyran")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Vitstensberget V FSC-klagomål.docx", "Vitstensberget V")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Johannesbomyran FSC-klagomål.docx", "Johannesbomyran")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Vitstensberget V FSC-klagomål mail.docx", "Vitstensberget V")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Johannesbomyran FSC-klagomål mail.docx", "Johannesbomyran")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Vitstensberget V tillsynsbegäran.docx", "Vitstensberget V")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Johannesbomyran tillsynsbegäran.docx", "Johannesbomyran")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Vitstensberget V tillsynsbegäran mail.docx", "Vitstensberget V")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Johannesbomyran tillsynsbegäran mail.docx", "Johannesbomyran")</f>
         <v/>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Lubbliden</t>
+          <t>Vitstensberget V</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
@@ -5605,10 +5786,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>299.4</v>
+        <v>112.2</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -5639,52 +5820,48 @@
       </c>
       <c r="R49" s="2" t="inlineStr">
         <is>
-          <t>Lunglav
-Tretåig hackspett</t>
+          <t>Dvärgbägarlav
+Violettgrå tagellav</t>
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lubbliden artfynd.xlsx", "Lubbliden")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Vitstensberget V artfynd.xlsx", "Vitstensberget V")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lubbliden karta.png", "Lubbliden")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Vitstensberget V karta.png", "Vitstensberget V")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lubbliden FSC-klagomål.docx", "Lubbliden")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Vitstensberget V FSC-klagomål.docx", "Vitstensberget V")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lubbliden FSC-klagomål mail.docx", "Lubbliden")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Vitstensberget V FSC-klagomål mail.docx", "Vitstensberget V")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lubbliden tillsynsbegäran.docx", "Lubbliden")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Vitstensberget V tillsynsbegäran.docx", "Vitstensberget V")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lubbliden tillsynsbegäran mail.docx", "Lubbliden")</f>
-        <v/>
-      </c>
-      <c r="Z49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Lubbliden prioriterade fågelarter.docx", "Lubbliden")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Vitstensberget V tillsynsbegäran mail.docx", "Vitstensberget V")</f>
         <v/>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Lögdeälven</t>
+          <t>Lubbliden</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
@@ -5693,10 +5870,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>115.9</v>
+        <v>299.4</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -5728,47 +5905,51 @@
       <c r="R50" s="2" t="inlineStr">
         <is>
           <t>Lunglav
-Reliktbock</t>
+Tretåig hackspett</t>
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lögdeälven artfynd.xlsx", "Lögdeälven")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lubbliden artfynd.xlsx", "Lubbliden")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lögdeälven karta.png", "Lögdeälven")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lubbliden karta.png", "Lubbliden")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lögdeälven FSC-klagomål.docx", "Lögdeälven")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lubbliden FSC-klagomål.docx", "Lubbliden")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lögdeälven FSC-klagomål mail.docx", "Lögdeälven")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lubbliden FSC-klagomål mail.docx", "Lubbliden")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lögdeälven tillsynsbegäran.docx", "Lögdeälven")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lubbliden tillsynsbegäran.docx", "Lubbliden")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lögdeälven tillsynsbegäran mail.docx", "Lögdeälven")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lubbliden tillsynsbegäran mail.docx", "Lubbliden")</f>
+        <v/>
+      </c>
+      <c r="Z50">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Lubbliden prioriterade fågelarter.docx", "Lubbliden")</f>
         <v/>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Johannesbomyran</t>
+          <t>Lögdeälven</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
@@ -5777,19 +5958,19 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>66.09999999999999</v>
+        <v>115.9</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -5801,45 +5982,42 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav
+Reliktbock</t>
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Johannesbomyran artfynd.xlsx", "Johannesbomyran")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lögdeälven artfynd.xlsx", "Lögdeälven")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Johannesbomyran karta.png", "Johannesbomyran")</f>
-        <v/>
-      </c>
-      <c r="U51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Johannesbomyran karta knärot.png", "Johannesbomyran")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lögdeälven karta.png", "Lögdeälven")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Johannesbomyran FSC-klagomål.docx", "Johannesbomyran")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lögdeälven FSC-klagomål.docx", "Lögdeälven")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Johannesbomyran FSC-klagomål mail.docx", "Johannesbomyran")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lögdeälven FSC-klagomål mail.docx", "Lögdeälven")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Johannesbomyran tillsynsbegäran.docx", "Johannesbomyran")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lögdeälven tillsynsbegäran.docx", "Lögdeälven")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Johannesbomyran tillsynsbegäran mail.docx", "Johannesbomyran")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lögdeälven tillsynsbegäran mail.docx", "Lögdeälven")</f>
         <v/>
       </c>
     </row>
@@ -5851,11 +6029,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
@@ -5929,16 +6107,16 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Tosktjärnberget</t>
+          <t>Lill-Lögdåberget V</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
@@ -5947,7 +6125,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>55</v>
+        <v>18.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -5981,47 +6159,47 @@
       </c>
       <c r="R53" s="2" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Tosktjärnberget artfynd.xlsx", "Tosktjärnberget")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lill-Lögdåberget V artfynd.xlsx", "Lill-Lögdåberget V")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Tosktjärnberget karta.png", "Tosktjärnberget")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lill-Lögdåberget V karta.png", "Lill-Lögdåberget V")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Tosktjärnberget FSC-klagomål.docx", "Tosktjärnberget")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lill-Lögdåberget V FSC-klagomål.docx", "Lill-Lögdåberget V")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Tosktjärnberget FSC-klagomål mail.docx", "Tosktjärnberget")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lill-Lögdåberget V FSC-klagomål mail.docx", "Lill-Lögdåberget V")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Tosktjärnberget tillsynsbegäran.docx", "Tosktjärnberget")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lill-Lögdåberget V tillsynsbegäran.docx", "Lill-Lögdåberget V")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Tosktjärnberget tillsynsbegäran mail.docx", "Tosktjärnberget")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lill-Lögdåberget V tillsynsbegäran mail.docx", "Lill-Lögdåberget V")</f>
         <v/>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nordmalingstjärnen</t>
+          <t>Tosktjärnberget</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
@@ -6030,7 +6208,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>33.9</v>
+        <v>55</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -6039,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -6054,29 +6232,57 @@
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R54" s="2" t="inlineStr">
+        <is>
+          <t>Dvärgbägarlav</t>
+        </is>
+      </c>
+      <c r="S54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Tosktjärnberget artfynd.xlsx", "Tosktjärnberget")</f>
+        <v/>
+      </c>
+      <c r="T54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Tosktjärnberget karta.png", "Tosktjärnberget")</f>
+        <v/>
+      </c>
+      <c r="V54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Tosktjärnberget FSC-klagomål.docx", "Tosktjärnberget")</f>
+        <v/>
+      </c>
+      <c r="W54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Tosktjärnberget FSC-klagomål mail.docx", "Tosktjärnberget")</f>
+        <v/>
+      </c>
+      <c r="X54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Tosktjärnberget tillsynsbegäran.docx", "Tosktjärnberget")</f>
+        <v/>
+      </c>
+      <c r="Y54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Tosktjärnberget tillsynsbegäran mail.docx", "Tosktjärnberget")</f>
+        <v/>
+      </c>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Svarttjärnen</t>
+          <t>Nordmalingstjärnen</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
@@ -6085,7 +6291,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>76.5</v>
+        <v>33.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -6122,16 +6328,16 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Lubbliden 2</t>
+          <t>Svarttjärnen</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
@@ -6140,7 +6346,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>96.8</v>
+        <v>76.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -6177,16 +6383,16 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Hötjärnberget NORR</t>
+          <t>Lubbliden 2</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
@@ -6195,7 +6401,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>26.8</v>
+        <v>96.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -6232,16 +6438,16 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Mjösjöberget V</t>
+          <t>Hötjärnberget NORR</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
@@ -6250,7 +6456,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>29.8</v>
+        <v>26.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -6287,16 +6493,16 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Tomasmyren V</t>
+          <t>Mjösjöberget V</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
@@ -6305,7 +6511,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>20.4</v>
+        <v>29.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -6342,16 +6548,16 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Lustigbacken</t>
+          <t>Tomasmyren V</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
@@ -6360,7 +6566,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>18.7</v>
+        <v>20.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -6397,16 +6603,16 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Lill-Lögdåberget V</t>
+          <t>Lustigbacken</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
@@ -6415,7 +6621,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>18.1</v>
+        <v>18.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -6457,11 +6663,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
@@ -6512,11 +6718,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
@@ -6567,11 +6773,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
@@ -6622,11 +6828,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45861</v>
+        <v>45865</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">

--- a/Översikt.xlsx
+++ b/Översikt.xlsx
@@ -572,11 +572,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -736,11 +736,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -755,10 +755,10 @@
         <v>14</v>
       </c>
       <c r="I3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" t="n">
         <v>12</v>
@@ -773,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P3" t="n">
         <v>12</v>
       </c>
       <c r="Q3" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
@@ -796,7 +796,62 @@
 Skuggnål
 Ulltickeporing
 Blanksvart spiklav
-Blågrå</t>
+Blek lundlav
+Blågrå svartspik
+Doftskinn
+Dvärgbägarlav
+Gammelgransskål
+Garnlav
+Granticka
+Gränsticka
+Grönhjon
+Harticka
+Kolflarnlav
+Lunglav
+Mörk kolflarnlav
+Oljetagging
+Rosenticka
+Småflikig brosklav
+Spillkråka
+Stjärntagging
+Tallticka
+Talltita
+Tretåig hackspett
+Ullticka
+Vedflamlav
+Vedskivlav
+Violettgrå tagellav
+Violmussling
+Vitgrynig nållav
+Barkticka
+Blodticka
+Bronshjon
+Bårdlav
+Dvärgtufs
+Granbarkgnagare
+Kattfotslav
+Korallblylav
+Luddlav
+Mindre märgborre
+Mörk husmossa
+Plattlummer
+Skinnlav
+Spindelblomster
+Stuplav
+Svart trolldruva
+Thomsons trägnagare
+Thymalus limbatus
+Trådticka
+Vedticka
+Vågbandad barkbock
+Ögonpyrola
+Kungsfågel
+Lavskrika
+Tjäder
+Huggorm
+Fläcknycklar
+Nattviol
+Revlummer</t>
         </is>
       </c>
       <c r="S3">
@@ -840,11 +895,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -988,11 +1043,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -1130,16 +1185,16 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fulberget</t>
+          <t>Baksjökullen</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -1148,39 +1203,182 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>53</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Urskogsporing
+Doftticka
+Fläckporing
+Gräddporing
+Knärot
+Liten aspgelélav
+Blanksvart spiklav
+Blå taggsvamp
+Blågrå svartspik
+Drillsnäppa
+Dvärgbägarlav
+Garnlav
+Grå blåbärsfältmätare
+Kolflarnlav
+Kortskaftad ärgspik
+Kådvaxskinn
+Liten svartspik
+Luddfingersvamp
+Lunglav
+Motaggsvamp
+Mörk kolflarnlav
+Nordtagging
+Reliktbock
+Rödvingetrast
+Skrovellav
+Spillkråka
+Svartvit taggsvamp
+Talltaggsvamp
+Talltita
+Tretåig hackspett
+Ullticka
+Vaddporing
+Vedflamlav
+Vedskivlav
+Vitgrynig nållav
+Vitplätt
+Björksplintborre
+Bårdlav
+Dropptaggsvamp
+Dvärgtufs
+Luddlav
+Mindre märgborre
+Nästlav
+Skinnlav
+Stuplav
+Vedticka
+Ögonpyrola
+Kungsfågel
+Lavskrika
+Orre
+Tjäder
+Vanlig groda
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Baksjökullen artfynd.xlsx", "Baksjökullen")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Baksjökullen karta.png", "Baksjökullen")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Baksjökullen karta knärot.png", "Baksjökullen")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Baksjökullen FSC-klagomål.docx", "Baksjökullen")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Baksjökullen FSC-klagomål mail.docx", "Baksjökullen")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Baksjökullen tillsynsbegäran.docx", "Baksjökullen")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Baksjökullen tillsynsbegäran mail.docx", "Baksjökullen")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Baksjökullen prioriterade fågelarter.docx", "Baksjökullen")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fulberget</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>117.3</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>9</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>17</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>26</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>3</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>29</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>3</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>50</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Rynkskinn
@@ -1234,93 +1432,93 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Fulberget artfynd.xlsx", "Fulberget")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Fulberget karta.png", "Fulberget")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Fulberget karta knärot.png", "Fulberget")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Fulberget FSC-klagomål.docx", "Fulberget")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Fulberget FSC-klagomål mail.docx", "Fulberget")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Fulberget tillsynsbegäran.docx", "Fulberget")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Fulberget tillsynsbegäran mail.docx", "Fulberget")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Fulberget prioriterade fågelarter.docx", "Fulberget")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Arnträskbergen</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>1125.5</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>11</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>17</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>20</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>9</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>29</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>9</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q8" t="n">
         <v>50</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Finporing
@@ -1374,89 +1572,89 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Arnträskbergen artfynd.xlsx", "Arnträskbergen")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Arnträskbergen karta.png", "Arnträskbergen")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Arnträskbergen FSC-klagomål.docx", "Arnträskbergen")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Arnträskbergen FSC-klagomål mail.docx", "Arnträskbergen")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Arnträskbergen tillsynsbegäran.docx", "Arnträskbergen")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Arnträskbergen tillsynsbegäran mail.docx", "Arnträskbergen")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Arnträskbergen prioriterade fågelarter.docx", "Arnträskbergen")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Sundsjölandet</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>381.1</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>7</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>8</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>27</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>3</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>31</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>4</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>44</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Urskogsporing
 Fläckporing
@@ -1504,89 +1702,89 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Sundsjölandet artfynd.xlsx", "Sundsjölandet")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Sundsjölandet karta.png", "Sundsjölandet")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Sundsjölandet FSC-klagomål.docx", "Sundsjölandet")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Sundsjölandet FSC-klagomål mail.docx", "Sundsjölandet")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Sundsjölandet tillsynsbegäran.docx", "Sundsjölandet")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Sundsjölandet tillsynsbegäran mail.docx", "Sundsjölandet")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Sundsjölandet prioriterade fågelarter.docx", "Sundsjölandet")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Lill-Lögdåberget O</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>27.2</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>9</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>8</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>24</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>4</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>29</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>5</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>40</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Tornseglare
 Fläckporing
@@ -1630,93 +1828,222 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lill-Lögdåberget O artfynd.xlsx", "Lill-Lögdåberget O")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lill-Lögdåberget O karta.png", "Lill-Lögdåberget O")</f>
         <v/>
       </c>
-      <c r="U9">
+      <c r="U10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Lill-Lögdåberget O karta knärot.png", "Lill-Lögdåberget O")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lill-Lögdåberget O FSC-klagomål.docx", "Lill-Lögdåberget O")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lill-Lögdåberget O FSC-klagomål mail.docx", "Lill-Lögdåberget O")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lill-Lögdåberget O tillsynsbegäran.docx", "Lill-Lögdåberget O")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lill-Lögdåberget O tillsynsbegäran mail.docx", "Lill-Lögdåberget O")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Lill-Lögdåberget O prioriterade fågelarter.docx", "Lill-Lögdåberget O")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rislidtjärnarna</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11</v>
+      </c>
+      <c r="J11" t="n">
+        <v>22</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>24</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>39</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Ulltickeporing
+Blanksvart spiklav
+Brunpudrad nållav
+Gammelgransskål
+Garnlav
+Granticka
+Gränsticka
+Grå blåbärsfältmätare
+Harticka
+Järpe
+Kolflarnlav
+Kortskaftad ärgspik
+Lunglav
+Mörk kolflarnlav
+Rosenticka
+Spillkråka
+Talltita
+Tretåig hackspett
+Ullticka
+Vedskivlav
+Vedtrappmossa
+Violettgrå tagellav
+Vitgrynig nållav
+Bronshjon
+Brun nållav
+Bårdlav
+Gulnål
+Gytterlav
+Luddlav
+Mörk husmossa
+Skinnlav
+Spindelblomster
+Stuplav
+Vedticka
+Bivråk
+Lavskrika
+Tjäder
+Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Rislidtjärnarna artfynd.xlsx", "Rislidtjärnarna")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Rislidtjärnarna karta.png", "Rislidtjärnarna")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Rislidtjärnarna karta knärot.png", "Rislidtjärnarna")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Rislidtjärnarna FSC-klagomål.docx", "Rislidtjärnarna")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Rislidtjärnarna FSC-klagomål mail.docx", "Rislidtjärnarna")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Rislidtjärnarna tillsynsbegäran.docx", "Rislidtjärnarna")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Rislidtjärnarna tillsynsbegäran mail.docx", "Rislidtjärnarna")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Rislidtjärnarna prioriterade fågelarter.docx", "Rislidtjärnarna")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Tällvattsåsen</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G12" t="n">
         <v>190.3</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H12" t="n">
         <v>13</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I12" t="n">
         <v>11</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J12" t="n">
         <v>18</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K12" t="n">
         <v>3</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>21</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P12" t="n">
         <v>3</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q12" t="n">
         <v>38</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Knärot
@@ -1758,104 +2085,106 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Tällvattsåsen artfynd.xlsx", "Tällvattsåsen")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Tällvattsåsen karta.png", "Tällvattsåsen")</f>
         <v/>
       </c>
-      <c r="U10">
+      <c r="U12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Tällvattsåsen karta knärot.png", "Tällvattsåsen")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Tällvattsåsen FSC-klagomål.docx", "Tällvattsåsen")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Tällvattsåsen FSC-klagomål mail.docx", "Tällvattsåsen")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Tällvattsåsen tillsynsbegäran.docx", "Tällvattsåsen")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Tällvattsåsen tillsynsbegäran mail.docx", "Tällvattsåsen")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Tällvattsåsen prioriterade fågelarter.docx", "Tällvattsåsen")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Lappberget</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G13" t="n">
         <v>60.4</v>
       </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" t="n">
         <v>9</v>
       </c>
-      <c r="J11" t="n">
-        <v>19</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J13" t="n">
+        <v>21</v>
+      </c>
+      <c r="K13" t="n">
         <v>2</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>22</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>24</v>
+      </c>
+      <c r="P13" t="n">
         <v>3</v>
       </c>
-      <c r="Q11" t="n">
-        <v>35</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="Q13" t="n">
+        <v>38</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Tornseglare
 Aspgelélav
 Fläckporing
 Blanksvart spiklav
+Blågrå svartspik
 Doftskinn
 Dvärgbägarlav
 Gammelgransskål
 Garnlav
 Granticka
 Kolflarnlav
+Lunglav
 Mörk kolflarnlav
 Nordtagging
 Stiftgelélav
@@ -1877,95 +2206,96 @@
 Stuplav
 Trådticka
 Vedticka
+Kungsfågel
 Tjäder
 Fläcknycklar
 Nattviol
 Revlummer</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lappberget artfynd.xlsx", "Lappberget")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lappberget karta.png", "Lappberget")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lappberget FSC-klagomål.docx", "Lappberget")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lappberget FSC-klagomål mail.docx", "Lappberget")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lappberget tillsynsbegäran.docx", "Lappberget")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lappberget tillsynsbegäran mail.docx", "Lappberget")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Lappberget prioriterade fågelarter.docx", "Lappberget")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Oxliden</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G14" t="n">
         <v>258.7</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>10</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J14" t="n">
         <v>23</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K14" t="n">
         <v>2</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>25</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P14" t="n">
         <v>2</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q14" t="n">
         <v>35</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Rotfingersvamp
@@ -2004,89 +2334,89 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Oxliden artfynd.xlsx", "Oxliden")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Oxliden karta.png", "Oxliden")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Oxliden FSC-klagomål.docx", "Oxliden")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Oxliden FSC-klagomål mail.docx", "Oxliden")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Oxliden tillsynsbegäran.docx", "Oxliden")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Oxliden tillsynsbegäran mail.docx", "Oxliden")</f>
         <v/>
       </c>
-      <c r="Z12">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Oxliden prioriterade fågelarter.docx", "Oxliden")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Tyfallsjön</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G15" t="n">
         <v>103.6</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I15" t="n">
         <v>4</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J15" t="n">
         <v>22</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K15" t="n">
         <v>8</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>30</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P15" t="n">
         <v>8</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q15" t="n">
         <v>34</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Goliatmusseron
@@ -2124,89 +2454,89 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Tyfallsjön artfynd.xlsx", "Tyfallsjön")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Tyfallsjön karta.png", "Tyfallsjön")</f>
         <v/>
       </c>
-      <c r="U13">
+      <c r="U15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Tyfallsjön karta knärot.png", "Tyfallsjön")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Tyfallsjön FSC-klagomål.docx", "Tyfallsjön")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Tyfallsjön FSC-klagomål mail.docx", "Tyfallsjön")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Tyfallsjön tillsynsbegäran.docx", "Tyfallsjön")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Tyfallsjön tillsynsbegäran mail.docx", "Tyfallsjön")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Orratjärnskullen</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G16" t="n">
         <v>64.7</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H16" t="n">
         <v>12</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I16" t="n">
         <v>5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J16" t="n">
         <v>20</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>21</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q16" t="n">
         <v>31</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Doftskinn
@@ -2241,93 +2571,93 @@
 Nattviol</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Orratjärnskullen artfynd.xlsx", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Orratjärnskullen karta.png", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="U14">
+      <c r="U16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Orratjärnskullen karta knärot.png", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Orratjärnskullen FSC-klagomål.docx", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Orratjärnskullen FSC-klagomål mail.docx", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Orratjärnskullen tillsynsbegäran.docx", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Orratjärnskullen tillsynsbegäran mail.docx", "Orratjärnskullen")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Orratjärnskullen prioriterade fågelarter.docx", "Orratjärnskullen")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Glesskallberget</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G17" t="n">
         <v>771.6</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H17" t="n">
         <v>8</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I17" t="n">
         <v>8</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J17" t="n">
         <v>15</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K17" t="n">
         <v>5</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>20</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P17" t="n">
         <v>5</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q17" t="n">
         <v>30</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Lappticka
@@ -2361,89 +2691,89 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Glesskallberget artfynd.xlsx", "Glesskallberget")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Glesskallberget karta.png", "Glesskallberget")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Glesskallberget FSC-klagomål.docx", "Glesskallberget")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Glesskallberget FSC-klagomål mail.docx", "Glesskallberget")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Glesskallberget tillsynsbegäran.docx", "Glesskallberget")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Glesskallberget tillsynsbegäran mail.docx", "Glesskallberget")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Glesskallberget prioriterade fågelarter.docx", "Glesskallberget")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Hötjärnberget</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G18" t="n">
         <v>65.8</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H18" t="n">
         <v>5</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I18" t="n">
         <v>12</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J18" t="n">
         <v>13</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K18" t="n">
         <v>3</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>16</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P18" t="n">
         <v>3</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q18" t="n">
         <v>29</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Knärot
@@ -2476,93 +2806,93 @@
 Sångsvan</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Hötjärnberget artfynd.xlsx", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Hötjärnberget karta.png", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="U16">
+      <c r="U18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Hötjärnberget karta knärot.png", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Hötjärnberget FSC-klagomål.docx", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Hötjärnberget FSC-klagomål mail.docx", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Hötjärnberget tillsynsbegäran.docx", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Hötjärnberget tillsynsbegäran mail.docx", "Hötjärnberget")</f>
         <v/>
       </c>
-      <c r="Z16">
+      <c r="Z18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Hötjärnberget prioriterade fågelarter.docx", "Hötjärnberget")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Lögdeälven käringberget</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G19" t="n">
         <v>534.2</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H19" t="n">
         <v>14</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I19" t="n">
         <v>2</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J19" t="n">
         <v>13</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K19" t="n">
         <v>5</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>18</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P19" t="n">
         <v>5</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q19" t="n">
         <v>28</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Goliatmusseron
 Gräddticka
@@ -2594,89 +2924,89 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lögdeälven käringberget artfynd.xlsx", "Lögdeälven käringberget")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lögdeälven käringberget karta.png", "Lögdeälven käringberget")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lögdeälven käringberget FSC-klagomål.docx", "Lögdeälven käringberget")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lögdeälven käringberget FSC-klagomål mail.docx", "Lögdeälven käringberget")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lögdeälven käringberget tillsynsbegäran.docx", "Lögdeälven käringberget")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lögdeälven käringberget tillsynsbegäran mail.docx", "Lögdeälven käringberget")</f>
         <v/>
       </c>
-      <c r="Z17">
+      <c r="Z19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Lögdeälven käringberget prioriterade fågelarter.docx", "Lögdeälven käringberget")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Bastuberget</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G20" t="n">
         <v>170.1</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H20" t="n">
         <v>7</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I20" t="n">
         <v>8</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J20" t="n">
         <v>14</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K20" t="n">
         <v>2</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>16</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P20" t="n">
         <v>2</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q20" t="n">
         <v>27</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Knärot
@@ -2707,93 +3037,93 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Bastuberget artfynd.xlsx", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Bastuberget karta.png", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="U18">
+      <c r="U20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Bastuberget karta knärot.png", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Bastuberget FSC-klagomål.docx", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Bastuberget FSC-klagomål mail.docx", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Bastuberget tillsynsbegäran.docx", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Bastuberget tillsynsbegäran mail.docx", "Bastuberget")</f>
         <v/>
       </c>
-      <c r="Z18">
+      <c r="Z20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Bastuberget prioriterade fågelarter.docx", "Bastuberget")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Stormyrbäcken</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G21" t="n">
         <v>14</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H21" t="n">
         <v>6</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I21" t="n">
         <v>7</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J21" t="n">
         <v>14</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K21" t="n">
         <v>4</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L21" t="n">
         <v>1</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>19</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P21" t="n">
         <v>5</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q21" t="n">
         <v>27</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Trådbrosklav
 Gräddticka
@@ -2824,210 +3154,93 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Stormyrbäcken artfynd.xlsx", "Stormyrbäcken")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Stormyrbäcken karta.png", "Stormyrbäcken")</f>
         <v/>
       </c>
-      <c r="U19">
+      <c r="U21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Stormyrbäcken karta knärot.png", "Stormyrbäcken")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Stormyrbäcken FSC-klagomål.docx", "Stormyrbäcken")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Stormyrbäcken FSC-klagomål mail.docx", "Stormyrbäcken")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Stormyrbäcken tillsynsbegäran.docx", "Stormyrbäcken")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Stormyrbäcken tillsynsbegäran mail.docx", "Stormyrbäcken")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z21">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Stormyrbäcken prioriterade fågelarter.docx", "Stormyrbäcken")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Rislidtjärnarna</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Vitstensberget</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>121.7</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="G22" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="H22" t="n">
         <v>6</v>
       </c>
-      <c r="I20" t="n">
-        <v>8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>16</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>17</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>27</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Blanksvart spiklav
-Brunpudrad nållav
-Gammelgransskål
-Garnlav
-Granticka
-Harticka
-Järpe
-Kortskaftad ärgspik
-Lunglav
-Rosenticka
-Spillkråka
-Tretåig hackspett
-Ullticka
-Vedskivlav
-Violettgrå tagellav
-Vitgrynig nållav
-Bronshjon
-Bårdlav
-Gytterlav
-Luddlav
-Mörk husmossa
-Skinnlav
-Stuplav
-Vedticka
-Tjäder
-Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Rislidtjärnarna artfynd.xlsx", "Rislidtjärnarna")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Rislidtjärnarna karta.png", "Rislidtjärnarna")</f>
-        <v/>
-      </c>
-      <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Rislidtjärnarna karta knärot.png", "Rislidtjärnarna")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Rislidtjärnarna FSC-klagomål.docx", "Rislidtjärnarna")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Rislidtjärnarna FSC-klagomål mail.docx", "Rislidtjärnarna")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Rislidtjärnarna tillsynsbegäran.docx", "Rislidtjärnarna")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Rislidtjärnarna tillsynsbegäran mail.docx", "Rislidtjärnarna")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Rislidtjärnarna prioriterade fågelarter.docx", "Rislidtjärnarna")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Vitstensberget</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="I22" t="n">
         <v>9</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J22" t="n">
         <v>11</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K22" t="n">
         <v>2</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>13</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P22" t="n">
         <v>2</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q22" t="n">
         <v>25</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Fläckporing
@@ -3056,89 +3269,89 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Vitstensberget artfynd.xlsx", "Vitstensberget")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Vitstensberget karta.png", "Vitstensberget")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Vitstensberget FSC-klagomål.docx", "Vitstensberget")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Vitstensberget FSC-klagomål mail.docx", "Vitstensberget")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Vitstensberget tillsynsbegäran.docx", "Vitstensberget")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Vitstensberget tillsynsbegäran mail.docx", "Vitstensberget")</f>
         <v/>
       </c>
-      <c r="Z21">
+      <c r="Z22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Vitstensberget prioriterade fågelarter.docx", "Vitstensberget")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Gåsselmyran</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G23" t="n">
         <v>78.7</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I23" t="n">
         <v>2</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J23" t="n">
         <v>19</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K23" t="n">
         <v>4</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>23</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P23" t="n">
         <v>4</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q23" t="n">
         <v>25</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Smalfotad taggsvamp
@@ -3167,85 +3380,85 @@
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Gåsselmyran artfynd.xlsx", "Gåsselmyran")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Gåsselmyran karta.png", "Gåsselmyran")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Gåsselmyran FSC-klagomål.docx", "Gåsselmyran")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Gåsselmyran FSC-klagomål mail.docx", "Gåsselmyran")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Gåsselmyran tillsynsbegäran.docx", "Gåsselmyran")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Gåsselmyran tillsynsbegäran mail.docx", "Gåsselmyran")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Käringberget SV</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="G24" t="n">
         <v>143.6</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>3</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I24" t="n">
         <v>7</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J24" t="n">
         <v>14</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K24" t="n">
         <v>3</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>18</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P24" t="n">
         <v>3</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q24" t="n">
         <v>25</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Goliatmusseron
 Laxgröppa
@@ -3274,89 +3487,89 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Käringberget SV artfynd.xlsx", "Käringberget SV")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Käringberget SV karta.png", "Käringberget SV")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Käringberget SV FSC-klagomål.docx", "Käringberget SV")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Käringberget SV FSC-klagomål mail.docx", "Käringberget SV")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Käringberget SV tillsynsbegäran.docx", "Käringberget SV")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Käringberget SV tillsynsbegäran mail.docx", "Käringberget SV")</f>
         <v/>
       </c>
-      <c r="Z23">
+      <c r="Z24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Käringberget SV prioriterade fågelarter.docx", "Käringberget SV")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Björnberget NV</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="G25" t="n">
         <v>80.59999999999999</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I25" t="n">
         <v>10</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J25" t="n">
         <v>13</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>13</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>24</v>
       </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Blå taggsvamp
 Doftskinn
@@ -3384,89 +3597,89 @@
 Lavskrika</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Björnberget NV artfynd.xlsx", "Björnberget NV")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Björnberget NV karta.png", "Björnberget NV")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Björnberget NV FSC-klagomål.docx", "Björnberget NV")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Björnberget NV FSC-klagomål mail.docx", "Björnberget NV")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Björnberget NV tillsynsbegäran.docx", "Björnberget NV")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Björnberget NV tillsynsbegäran mail.docx", "Björnberget NV")</f>
         <v/>
       </c>
-      <c r="Z24">
+      <c r="Z25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Björnberget NV prioriterade fågelarter.docx", "Björnberget NV")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Herrbergsliden norr</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="G26" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>4</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I26" t="n">
         <v>8</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J26" t="n">
         <v>10</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K26" t="n">
         <v>6</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>16</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P26" t="n">
         <v>6</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q26" t="n">
         <v>24</v>
       </c>
-      <c r="R25" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Blackticka
 Doftticka
@@ -3494,93 +3707,93 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S25">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Herrbergsliden norr artfynd.xlsx", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="T25">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Herrbergsliden norr karta.png", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="U25">
+      <c r="U26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Herrbergsliden norr karta knärot.png", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="V25">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Herrbergsliden norr FSC-klagomål.docx", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="W25">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Herrbergsliden norr FSC-klagomål mail.docx", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="X25">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Herrbergsliden norr tillsynsbegäran.docx", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="Y25">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Herrbergsliden norr tillsynsbegäran mail.docx", "Herrbergsliden norr")</f>
         <v/>
       </c>
-      <c r="Z25">
+      <c r="Z26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Herrbergsliden norr prioriterade fågelarter.docx", "Herrbergsliden norr")</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Karlstjärnberget</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G27" t="n">
         <v>56.4</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I27" t="n">
         <v>4</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J27" t="n">
         <v>15</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K27" t="n">
         <v>3</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>18</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P27" t="n">
         <v>3</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q27" t="n">
         <v>23</v>
       </c>
-      <c r="R26" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Aspfjädermossa
 Aspgelélav
@@ -3607,140 +3820,32 @@
 Orre</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Karlstjärnberget artfynd.xlsx", "Karlstjärnberget")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Karlstjärnberget karta.png", "Karlstjärnberget")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Karlstjärnberget FSC-klagomål.docx", "Karlstjärnberget")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Karlstjärnberget FSC-klagomål mail.docx", "Karlstjärnberget")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Karlstjärnberget tillsynsbegäran.docx", "Karlstjärnberget")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Karlstjärnberget tillsynsbegäran mail.docx", "Karlstjärnberget")</f>
         <v/>
       </c>
-      <c r="Z26">
+      <c r="Z27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Karlstjärnberget prioriterade fågelarter.docx", "Karlstjärnberget")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Baksjökullen</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>152.1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>14</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>18</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>22</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Urskogsporing
-Doftticka
-Fläckporing
-Gräddporing
-Blanksvart spiklav
-Dvärgbägarlav
-Garnlav
-Kolflarnlav
-Lunglav
-Motaggsvamp
-Mörk kolflarnlav
-Skrovellav
-Talltaggsvamp
-Ullticka
-Vaddporing
-Vedflamlav
-Vedskivlav
-Vitplätt
-Bårdlav
-Dropptaggsvamp
-Luddlav
-Orre</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Baksjökullen artfynd.xlsx", "Baksjökullen")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Baksjökullen karta.png", "Baksjökullen")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Baksjökullen FSC-klagomål.docx", "Baksjökullen")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Baksjökullen FSC-klagomål mail.docx", "Baksjökullen")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Baksjökullen tillsynsbegäran.docx", "Baksjökullen")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Baksjökullen tillsynsbegäran mail.docx", "Baksjökullen")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Baksjökullen prioriterade fågelarter.docx", "Baksjökullen")</f>
         <v/>
       </c>
     </row>
@@ -3752,11 +3857,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
@@ -3853,16 +3958,16 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Lögdaselet</t>
+          <t>Johannesbomyran</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
@@ -3871,16 +3976,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>166.5</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
@@ -3895,15 +4000,124 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
       </c>
       <c r="Q29" t="n">
+        <v>19</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Doftskinn
+Garnlav
+Kolflarnlav
+Kortskaftad ärgspik
+Lunglav
+Mörk kolflarnlav
+Tallticka
+Tretåig hackspett
+Vedskivlav
+Violettgrå tagellav
+Bårdlav
+Dropptaggsvamp
+Dvärgtufs
+Luddlav
+Plattlummer
+Skinnlav
+Stor aspticka
+Stuplav</t>
+        </is>
+      </c>
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Johannesbomyran artfynd.xlsx", "Johannesbomyran")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Johannesbomyran karta.png", "Johannesbomyran")</f>
+        <v/>
+      </c>
+      <c r="U29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Johannesbomyran karta knärot.png", "Johannesbomyran")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Johannesbomyran FSC-klagomål.docx", "Johannesbomyran")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Johannesbomyran FSC-klagomål mail.docx", "Johannesbomyran")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Johannesbomyran tillsynsbegäran.docx", "Johannesbomyran")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Johannesbomyran tillsynsbegäran mail.docx", "Johannesbomyran")</f>
+        <v/>
+      </c>
+      <c r="Z29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Johannesbomyran prioriterade fågelarter.docx", "Johannesbomyran")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Lögdaselet</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>12</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>13</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
         <v>18</v>
       </c>
-      <c r="R29" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Blanksvart spiklav
@@ -3925,93 +4139,93 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S29">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lögdaselet artfynd.xlsx", "Lögdaselet")</f>
         <v/>
       </c>
-      <c r="T29">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lögdaselet karta.png", "Lögdaselet")</f>
         <v/>
       </c>
-      <c r="U29">
+      <c r="U30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Lögdaselet karta knärot.png", "Lögdaselet")</f>
         <v/>
       </c>
-      <c r="V29">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lögdaselet FSC-klagomål.docx", "Lögdaselet")</f>
         <v/>
       </c>
-      <c r="W29">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lögdaselet FSC-klagomål mail.docx", "Lögdaselet")</f>
         <v/>
       </c>
-      <c r="X29">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lögdaselet tillsynsbegäran.docx", "Lögdaselet")</f>
         <v/>
       </c>
-      <c r="Y29">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lögdaselet tillsynsbegäran mail.docx", "Lögdaselet")</f>
         <v/>
       </c>
-      <c r="Z29">
+      <c r="Z30">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Lögdaselet prioriterade fågelarter.docx", "Lögdaselet")</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Holmtjärnen</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="G31" t="n">
         <v>105.2</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H31" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J31" t="n">
         <v>14</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K31" t="n">
         <v>3</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>17</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P31" t="n">
         <v>3</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q31" t="n">
         <v>18</v>
       </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Goliatmusseron
@@ -4033,89 +4247,89 @@
 Bårdlav</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Holmtjärnen artfynd.xlsx", "Holmtjärnen")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Holmtjärnen karta.png", "Holmtjärnen")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Holmtjärnen FSC-klagomål.docx", "Holmtjärnen")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Holmtjärnen FSC-klagomål mail.docx", "Holmtjärnen")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Holmtjärnen tillsynsbegäran.docx", "Holmtjärnen")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Holmtjärnen tillsynsbegäran mail.docx", "Holmtjärnen")</f>
         <v/>
       </c>
-      <c r="Z30">
+      <c r="Z31">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Holmtjärnen prioriterade fågelarter.docx", "Holmtjärnen")</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Björnberget SV</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G32" t="n">
         <v>57.7</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H32" t="n">
         <v>2</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I32" t="n">
         <v>4</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J32" t="n">
         <v>10</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>10</v>
       </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>16</v>
       </c>
-      <c r="R31" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Dvärgbägarlav
 Gammelgransskål
@@ -4135,89 +4349,89 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S31">
+      <c r="S32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Björnberget SV artfynd.xlsx", "Björnberget SV")</f>
         <v/>
       </c>
-      <c r="T31">
+      <c r="T32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Björnberget SV karta.png", "Björnberget SV")</f>
         <v/>
       </c>
-      <c r="V31">
+      <c r="V32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Björnberget SV FSC-klagomål.docx", "Björnberget SV")</f>
         <v/>
       </c>
-      <c r="W31">
+      <c r="W32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Björnberget SV FSC-klagomål mail.docx", "Björnberget SV")</f>
         <v/>
       </c>
-      <c r="X31">
+      <c r="X32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Björnberget SV tillsynsbegäran.docx", "Björnberget SV")</f>
         <v/>
       </c>
-      <c r="Y31">
+      <c r="Y32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Björnberget SV tillsynsbegäran mail.docx", "Björnberget SV")</f>
         <v/>
       </c>
-      <c r="Z31">
+      <c r="Z32">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Björnberget SV prioriterade fågelarter.docx", "Björnberget SV")</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Gålgoberget</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="G33" t="n">
         <v>57.1</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H33" t="n">
         <v>2</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I33" t="n">
         <v>4</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J33" t="n">
         <v>10</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K33" t="n">
         <v>1</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>11</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P33" t="n">
         <v>1</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q33" t="n">
         <v>16</v>
       </c>
-      <c r="R32" s="2" t="inlineStr">
+      <c r="R33" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Blanksvart spiklav
@@ -4237,93 +4451,93 @@
 Lavskrika</t>
         </is>
       </c>
-      <c r="S32">
+      <c r="S33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Gålgoberget artfynd.xlsx", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="T32">
+      <c r="T33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Gålgoberget karta.png", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="U32">
+      <c r="U33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Gålgoberget karta knärot.png", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="V32">
+      <c r="V33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Gålgoberget FSC-klagomål.docx", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="W32">
+      <c r="W33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Gålgoberget FSC-klagomål mail.docx", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="X32">
+      <c r="X33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Gålgoberget tillsynsbegäran.docx", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="Y32">
+      <c r="Y33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Gålgoberget tillsynsbegäran mail.docx", "Gålgoberget")</f>
         <v/>
       </c>
-      <c r="Z32">
+      <c r="Z33">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Gålgoberget prioriterade fågelarter.docx", "Gålgoberget")</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Aspmyrbäcken</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G34" t="n">
         <v>356.4</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I34" t="n">
         <v>4</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J34" t="n">
         <v>9</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K34" t="n">
         <v>3</v>
       </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>12</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P34" t="n">
         <v>3</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q34" t="n">
         <v>16</v>
       </c>
-      <c r="R33" s="2" t="inlineStr">
+      <c r="R34" s="2" t="inlineStr">
         <is>
           <t>Lappticka
 Ostticka
@@ -4343,89 +4557,89 @@
 Trådticka</t>
         </is>
       </c>
-      <c r="S33">
+      <c r="S34">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Aspmyrbäcken artfynd.xlsx", "Aspmyrbäcken")</f>
         <v/>
       </c>
-      <c r="T33">
+      <c r="T34">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Aspmyrbäcken karta.png", "Aspmyrbäcken")</f>
         <v/>
       </c>
-      <c r="V33">
+      <c r="V34">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Aspmyrbäcken FSC-klagomål.docx", "Aspmyrbäcken")</f>
         <v/>
       </c>
-      <c r="W33">
+      <c r="W34">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Aspmyrbäcken FSC-klagomål mail.docx", "Aspmyrbäcken")</f>
         <v/>
       </c>
-      <c r="X33">
+      <c r="X34">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Aspmyrbäcken tillsynsbegäran.docx", "Aspmyrbäcken")</f>
         <v/>
       </c>
-      <c r="Y33">
+      <c r="Y34">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Aspmyrbäcken tillsynsbegäran mail.docx", "Aspmyrbäcken")</f>
         <v/>
       </c>
-      <c r="Z33">
+      <c r="Z34">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Aspmyrbäcken prioriterade fågelarter.docx", "Aspmyrbäcken")</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Gubbmyran</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="G35" t="n">
         <v>186</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>2</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J35" t="n">
         <v>11</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K35" t="n">
         <v>3</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>14</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P35" t="n">
         <v>3</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q35" t="n">
         <v>16</v>
       </c>
-      <c r="R34" s="2" t="inlineStr">
+      <c r="R35" s="2" t="inlineStr">
         <is>
           <t>Lappticka
 Liten sotlav
@@ -4445,85 +4659,85 @@
 Trådticka</t>
         </is>
       </c>
-      <c r="S34">
+      <c r="S35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Gubbmyran artfynd.xlsx", "Gubbmyran")</f>
         <v/>
       </c>
-      <c r="T34">
+      <c r="T35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Gubbmyran karta.png", "Gubbmyran")</f>
         <v/>
       </c>
-      <c r="V34">
+      <c r="V35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Gubbmyran FSC-klagomål.docx", "Gubbmyran")</f>
         <v/>
       </c>
-      <c r="W34">
+      <c r="W35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Gubbmyran FSC-klagomål mail.docx", "Gubbmyran")</f>
         <v/>
       </c>
-      <c r="X34">
+      <c r="X35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Gubbmyran tillsynsbegäran.docx", "Gubbmyran")</f>
         <v/>
       </c>
-      <c r="Y34">
+      <c r="Y35">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Gubbmyran tillsynsbegäran mail.docx", "Gubbmyran")</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Kälkåsen</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="G36" t="n">
         <v>58.4</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H36" t="n">
         <v>2</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I36" t="n">
         <v>5</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J36" t="n">
         <v>7</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K36" t="n">
         <v>3</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>10</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P36" t="n">
         <v>3</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q36" t="n">
         <v>15</v>
       </c>
-      <c r="R35" s="2" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Gräddporing
@@ -4542,93 +4756,93 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S35">
+      <c r="S36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Kälkåsen artfynd.xlsx", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="T35">
+      <c r="T36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Kälkåsen karta.png", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="U35">
+      <c r="U36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Kälkåsen karta knärot.png", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="V35">
+      <c r="V36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Kälkåsen FSC-klagomål.docx", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="W35">
+      <c r="W36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Kälkåsen FSC-klagomål mail.docx", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="X35">
+      <c r="X36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Kälkåsen tillsynsbegäran.docx", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="Y35">
+      <c r="Y36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Kälkåsen tillsynsbegäran mail.docx", "Kälkåsen")</f>
         <v/>
       </c>
-      <c r="Z35">
+      <c r="Z36">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/fåglar/Kälkåsen prioriterade fågelarter.docx", "Kälkåsen")</f>
         <v/>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Trollberget</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G36" t="n">
+      <c r="G37" t="n">
         <v>110.6</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>6</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J37" t="n">
         <v>9</v>
       </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>9</v>
       </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>15</v>
       </c>
-      <c r="R36" s="2" t="inlineStr">
+      <c r="R37" s="2" t="inlineStr">
         <is>
           <t>Doftskinn
 Granticka
@@ -4647,85 +4861,85 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S36">
+      <c r="S37">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Trollberget artfynd.xlsx", "Trollberget")</f>
         <v/>
       </c>
-      <c r="T36">
+      <c r="T37">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Trollberget karta.png", "Trollberget")</f>
         <v/>
       </c>
-      <c r="V36">
+      <c r="V37">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Trollberget FSC-klagomål.docx", "Trollberget")</f>
         <v/>
       </c>
-      <c r="W36">
+      <c r="W37">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Trollberget FSC-klagomål mail.docx", "Trollberget")</f>
         <v/>
       </c>
-      <c r="X36">
+      <c r="X37">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Trollberget tillsynsbegäran.docx", "Trollberget")</f>
         <v/>
       </c>
-      <c r="Y36">
+      <c r="Y37">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Trollberget tillsynsbegäran mail.docx", "Trollberget")</f>
         <v/>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Björnberget N</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G37" t="n">
+      <c r="G38" t="n">
         <v>29.2</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>4</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J38" t="n">
         <v>9</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K38" t="n">
         <v>1</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>10</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P38" t="n">
         <v>1</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q38" t="n">
         <v>14</v>
       </c>
-      <c r="R37" s="2" t="inlineStr">
+      <c r="R38" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Blå taggsvamp
@@ -4743,85 +4957,85 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S37">
+      <c r="S38">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Björnberget N artfynd.xlsx", "Björnberget N")</f>
         <v/>
       </c>
-      <c r="T37">
+      <c r="T38">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Björnberget N karta.png", "Björnberget N")</f>
         <v/>
       </c>
-      <c r="V37">
+      <c r="V38">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Björnberget N FSC-klagomål.docx", "Björnberget N")</f>
         <v/>
       </c>
-      <c r="W37">
+      <c r="W38">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Björnberget N FSC-klagomål mail.docx", "Björnberget N")</f>
         <v/>
       </c>
-      <c r="X37">
+      <c r="X38">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Björnberget N tillsynsbegäran.docx", "Björnberget N")</f>
         <v/>
       </c>
-      <c r="Y37">
+      <c r="Y38">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Björnberget N tillsynsbegäran mail.docx", "Björnberget N")</f>
         <v/>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>Gåstjärnen</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G38" t="n">
+      <c r="G39" t="n">
         <v>62.7</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>11</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K39" t="n">
         <v>3</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>14</v>
       </c>
-      <c r="P38" t="n">
+      <c r="P39" t="n">
         <v>3</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="Q39" t="n">
         <v>14</v>
       </c>
-      <c r="R38" s="2" t="inlineStr">
+      <c r="R39" s="2" t="inlineStr">
         <is>
           <t>Goliatmusseron
 Knärot
@@ -4839,89 +5053,89 @@
 Vitgrynig nållav</t>
         </is>
       </c>
-      <c r="S38">
+      <c r="S39">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Gåstjärnen artfynd.xlsx", "Gåstjärnen")</f>
         <v/>
       </c>
-      <c r="T38">
+      <c r="T39">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Gåstjärnen karta.png", "Gåstjärnen")</f>
         <v/>
       </c>
-      <c r="U38">
+      <c r="U39">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Gåstjärnen karta knärot.png", "Gåstjärnen")</f>
         <v/>
       </c>
-      <c r="V38">
+      <c r="V39">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Gåstjärnen FSC-klagomål.docx", "Gåstjärnen")</f>
         <v/>
       </c>
-      <c r="W38">
+      <c r="W39">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Gåstjärnen FSC-klagomål mail.docx", "Gåstjärnen")</f>
         <v/>
       </c>
-      <c r="X38">
+      <c r="X39">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Gåstjärnen tillsynsbegäran.docx", "Gåstjärnen")</f>
         <v/>
       </c>
-      <c r="Y38">
+      <c r="Y39">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Gåstjärnen tillsynsbegäran mail.docx", "Gåstjärnen")</f>
         <v/>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Stor-Svartliden</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G39" t="n">
+      <c r="G40" t="n">
         <v>187.8</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H40" t="n">
         <v>2</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I40" t="n">
         <v>4</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J40" t="n">
         <v>7</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K40" t="n">
         <v>1</v>
       </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>8</v>
       </c>
-      <c r="P39" t="n">
+      <c r="P40" t="n">
         <v>1</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q40" t="n">
         <v>13</v>
       </c>
-      <c r="R39" s="2" t="inlineStr">
+      <c r="R40" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Doftskinn
@@ -4938,85 +5152,85 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S39">
+      <c r="S40">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Stor-Svartliden artfynd.xlsx", "Stor-Svartliden")</f>
         <v/>
       </c>
-      <c r="T39">
+      <c r="T40">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Stor-Svartliden karta.png", "Stor-Svartliden")</f>
         <v/>
       </c>
-      <c r="V39">
+      <c r="V40">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Stor-Svartliden FSC-klagomål.docx", "Stor-Svartliden")</f>
         <v/>
       </c>
-      <c r="W39">
+      <c r="W40">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Stor-Svartliden FSC-klagomål mail.docx", "Stor-Svartliden")</f>
         <v/>
       </c>
-      <c r="X39">
+      <c r="X40">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Stor-Svartliden tillsynsbegäran.docx", "Stor-Svartliden")</f>
         <v/>
       </c>
-      <c r="Y39">
+      <c r="Y40">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Stor-Svartliden tillsynsbegäran mail.docx", "Stor-Svartliden")</f>
         <v/>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>Kläpptjärnen</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G40" t="n">
+      <c r="G41" t="n">
         <v>113.3</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>3</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J41" t="n">
         <v>8</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K41" t="n">
         <v>2</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>10</v>
       </c>
-      <c r="P40" t="n">
+      <c r="P41" t="n">
         <v>2</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="Q41" t="n">
         <v>13</v>
       </c>
-      <c r="R40" s="2" t="inlineStr">
+      <c r="R41" s="2" t="inlineStr">
         <is>
           <t>Goliatmusseron
 Jättemusseron
@@ -5033,85 +5247,85 @@
 Tallfingersvamp</t>
         </is>
       </c>
-      <c r="S40">
+      <c r="S41">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Kläpptjärnen artfynd.xlsx", "Kläpptjärnen")</f>
         <v/>
       </c>
-      <c r="T40">
+      <c r="T41">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Kläpptjärnen karta.png", "Kläpptjärnen")</f>
         <v/>
       </c>
-      <c r="V40">
+      <c r="V41">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Kläpptjärnen FSC-klagomål.docx", "Kläpptjärnen")</f>
         <v/>
       </c>
-      <c r="W40">
+      <c r="W41">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Kläpptjärnen FSC-klagomål mail.docx", "Kläpptjärnen")</f>
         <v/>
       </c>
-      <c r="X40">
+      <c r="X41">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Kläpptjärnen tillsynsbegäran.docx", "Kläpptjärnen")</f>
         <v/>
       </c>
-      <c r="Y40">
+      <c r="Y41">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Kläpptjärnen tillsynsbegäran mail.docx", "Kläpptjärnen")</f>
         <v/>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>Stensjöåsen</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G41" t="n">
+      <c r="G42" t="n">
         <v>117.8</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>3</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J42" t="n">
         <v>7</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K42" t="n">
         <v>2</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>9</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P42" t="n">
         <v>2</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q42" t="n">
         <v>12</v>
       </c>
-      <c r="R41" s="2" t="inlineStr">
+      <c r="R42" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Tajgataggsvamp
@@ -5127,85 +5341,178 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S41">
+      <c r="S42">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Stensjöåsen artfynd.xlsx", "Stensjöåsen")</f>
         <v/>
       </c>
-      <c r="T41">
+      <c r="T42">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Stensjöåsen karta.png", "Stensjöåsen")</f>
         <v/>
       </c>
-      <c r="V41">
+      <c r="V42">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Stensjöåsen FSC-klagomål.docx", "Stensjöåsen")</f>
         <v/>
       </c>
-      <c r="W41">
+      <c r="W42">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Stensjöåsen FSC-klagomål mail.docx", "Stensjöåsen")</f>
         <v/>
       </c>
-      <c r="X41">
+      <c r="X42">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Stensjöåsen tillsynsbegäran.docx", "Stensjöåsen")</f>
         <v/>
       </c>
-      <c r="Y41">
+      <c r="Y42">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Stensjöåsen tillsynsbegäran mail.docx", "Stensjöåsen")</f>
         <v/>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Stornäsholmen</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>11</v>
+      </c>
+      <c r="R43" s="2" t="inlineStr">
+        <is>
+          <t>Rynkskinn
+Rosenticka
+Ullticka
+Källpraktmossa
+Luddlav
+Thomsons trägnagare
+Tibast
+Vedticka
+Vågbandad barkbock
+Ögonpyrola
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S43">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Stornäsholmen artfynd.xlsx", "Stornäsholmen")</f>
+        <v/>
+      </c>
+      <c r="T43">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Stornäsholmen karta.png", "Stornäsholmen")</f>
+        <v/>
+      </c>
+      <c r="V43">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Stornäsholmen FSC-klagomål.docx", "Stornäsholmen")</f>
+        <v/>
+      </c>
+      <c r="W43">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Stornäsholmen FSC-klagomål mail.docx", "Stornäsholmen")</f>
+        <v/>
+      </c>
+      <c r="X43">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Stornäsholmen tillsynsbegäran.docx", "Stornäsholmen")</f>
+        <v/>
+      </c>
+      <c r="Y43">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Stornäsholmen tillsynsbegäran mail.docx", "Stornäsholmen")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>Blåbergssjön</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G42" t="n">
+      <c r="G44" t="n">
         <v>27.1</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>3</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J44" t="n">
         <v>7</v>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>7</v>
       </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>10</v>
       </c>
-      <c r="R42" s="2" t="inlineStr">
+      <c r="R44" s="2" t="inlineStr">
         <is>
           <t>Blanksvart spiklav
 Dvärgbägarlav
@@ -5219,85 +5526,85 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S42">
+      <c r="S44">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Blåbergssjön artfynd.xlsx", "Blåbergssjön")</f>
         <v/>
       </c>
-      <c r="T42">
+      <c r="T44">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Blåbergssjön karta.png", "Blåbergssjön")</f>
         <v/>
       </c>
-      <c r="V42">
+      <c r="V44">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Blåbergssjön FSC-klagomål.docx", "Blåbergssjön")</f>
         <v/>
       </c>
-      <c r="W42">
+      <c r="W44">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Blåbergssjön FSC-klagomål mail.docx", "Blåbergssjön")</f>
         <v/>
       </c>
-      <c r="X42">
+      <c r="X44">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Blåbergssjön tillsynsbegäran.docx", "Blåbergssjön")</f>
         <v/>
       </c>
-      <c r="Y42">
+      <c r="Y44">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Blåbergssjön tillsynsbegäran mail.docx", "Blåbergssjön")</f>
         <v/>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>Käringberget SO</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G43" t="n">
+      <c r="G45" t="n">
         <v>143.1</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>3</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J45" t="n">
         <v>3</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>3</v>
       </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>6</v>
       </c>
-      <c r="R43" s="2" t="inlineStr">
+      <c r="R45" s="2" t="inlineStr">
         <is>
           <t>Lunglav
 Ullticka
@@ -5307,85 +5614,85 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S43">
+      <c r="S45">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Käringberget SO artfynd.xlsx", "Käringberget SO")</f>
         <v/>
       </c>
-      <c r="T43">
+      <c r="T45">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Käringberget SO karta.png", "Käringberget SO")</f>
         <v/>
       </c>
-      <c r="V43">
+      <c r="V45">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Käringberget SO FSC-klagomål.docx", "Käringberget SO")</f>
         <v/>
       </c>
-      <c r="W43">
+      <c r="W45">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Käringberget SO FSC-klagomål mail.docx", "Käringberget SO")</f>
         <v/>
       </c>
-      <c r="X43">
+      <c r="X45">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Käringberget SO tillsynsbegäran.docx", "Käringberget SO")</f>
         <v/>
       </c>
-      <c r="Y43">
+      <c r="Y45">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Käringberget SO tillsynsbegäran mail.docx", "Käringberget SO")</f>
         <v/>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Alingsås</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G44" t="n">
+      <c r="G46" t="n">
         <v>129.9</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>3</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K46" t="n">
         <v>1</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>4</v>
       </c>
-      <c r="P44" t="n">
+      <c r="P46" t="n">
         <v>1</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="Q46" t="n">
         <v>4</v>
       </c>
-      <c r="R44" s="2" t="inlineStr">
+      <c r="R46" s="2" t="inlineStr">
         <is>
           <t>Liten sotlav
 Doftskinn
@@ -5393,85 +5700,85 @@
 Ullticka</t>
         </is>
       </c>
-      <c r="S44">
+      <c r="S46">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Alingsås artfynd.xlsx", "Alingsås")</f>
         <v/>
       </c>
-      <c r="T44">
+      <c r="T46">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Alingsås karta.png", "Alingsås")</f>
         <v/>
       </c>
-      <c r="V44">
+      <c r="V46">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Alingsås FSC-klagomål.docx", "Alingsås")</f>
         <v/>
       </c>
-      <c r="W44">
+      <c r="W46">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Alingsås FSC-klagomål mail.docx", "Alingsås")</f>
         <v/>
       </c>
-      <c r="X44">
+      <c r="X46">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Alingsås tillsynsbegäran.docx", "Alingsås")</f>
         <v/>
       </c>
-      <c r="Y44">
+      <c r="Y46">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Alingsås tillsynsbegäran mail.docx", "Alingsås")</f>
         <v/>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="47" ht="15" customHeight="1">
+      <c r="A47" t="inlineStr">
         <is>
           <t>Norrnäs</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G45" t="n">
+      <c r="G47" t="n">
         <v>48.6</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
         <v>4</v>
       </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
         <v>4</v>
       </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
         <v>4</v>
       </c>
-      <c r="R45" s="2" t="inlineStr">
+      <c r="R47" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Granticka
@@ -5479,85 +5786,85 @@
 Ullticka</t>
         </is>
       </c>
-      <c r="S45">
+      <c r="S47">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Norrnäs artfynd.xlsx", "Norrnäs")</f>
         <v/>
       </c>
-      <c r="T45">
+      <c r="T47">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Norrnäs karta.png", "Norrnäs")</f>
         <v/>
       </c>
-      <c r="V45">
+      <c r="V47">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Norrnäs FSC-klagomål.docx", "Norrnäs")</f>
         <v/>
       </c>
-      <c r="W45">
+      <c r="W47">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Norrnäs FSC-klagomål mail.docx", "Norrnäs")</f>
         <v/>
       </c>
-      <c r="X45">
+      <c r="X47">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Norrnäs tillsynsbegäran.docx", "Norrnäs")</f>
         <v/>
       </c>
-      <c r="Y45">
+      <c r="Y47">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Norrnäs tillsynsbegäran mail.docx", "Norrnäs")</f>
         <v/>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="inlineStr">
+    <row r="48" ht="15" customHeight="1">
+      <c r="A48" t="inlineStr">
         <is>
           <t>Lill-Smaltjärnen</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>45871</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>Bjurholm</t>
         </is>
       </c>
-      <c r="G46" t="n">
+      <c r="G48" t="n">
         <v>174.7</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J48" t="n">
         <v>3</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
         <v>3</v>
       </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
         <v>4</v>
       </c>
-      <c r="R46" s="2" t="inlineStr">
+      <c r="R48" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Lunglav
@@ -5565,203 +5872,28 @@
 Luddlav</t>
         </is>
       </c>
-      <c r="S46">
+      <c r="S48">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Lill-Smaltjärnen artfynd.xlsx", "Lill-Smaltjärnen")</f>
         <v/>
       </c>
-      <c r="T46">
+      <c r="T48">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Lill-Smaltjärnen karta.png", "Lill-Smaltjärnen")</f>
         <v/>
       </c>
-      <c r="V46">
+      <c r="V48">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Lill-Smaltjärnen FSC-klagomål.docx", "Lill-Smaltjärnen")</f>
         <v/>
       </c>
-      <c r="W46">
+      <c r="W48">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Lill-Smaltjärnen FSC-klagomål mail.docx", "Lill-Smaltjärnen")</f>
         <v/>
       </c>
-      <c r="X46">
+      <c r="X48">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Lill-Smaltjärnen tillsynsbegäran.docx", "Lill-Smaltjärnen")</f>
         <v/>
       </c>
-      <c r="Y46">
+      <c r="Y48">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Lill-Smaltjärnen tillsynsbegäran mail.docx", "Lill-Smaltjärnen")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Stornäsholmen</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>3</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" s="2" t="inlineStr">
-        <is>
-          <t>Rynkskinn
-Rosenticka
-Ullticka
-Tibast</t>
-        </is>
-      </c>
-      <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Stornäsholmen artfynd.xlsx", "Stornäsholmen")</f>
-        <v/>
-      </c>
-      <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Stornäsholmen karta.png", "Stornäsholmen")</f>
-        <v/>
-      </c>
-      <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Stornäsholmen FSC-klagomål.docx", "Stornäsholmen")</f>
-        <v/>
-      </c>
-      <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Stornäsholmen FSC-klagomål mail.docx", "Stornäsholmen")</f>
-        <v/>
-      </c>
-      <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Stornäsholmen tillsynsbegäran.docx", "Stornäsholmen")</f>
-        <v/>
-      </c>
-      <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Stornäsholmen tillsynsbegäran mail.docx", "Stornäsholmen")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Johannesbomyran</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2025-07-27</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="n">
-        <v>45865</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Bjurholm</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>2</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>3</v>
-      </c>
-      <c r="R48" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Mörk kolflarnlav
-Stuplav</t>
-        </is>
-      </c>
-      <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/artfynd/Johannesbomyran artfynd.xlsx", "Johannesbomyran")</f>
-        <v/>
-      </c>
-      <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/kartor/Johannesbomyran karta.png", "Johannesbomyran")</f>
-        <v/>
-      </c>
-      <c r="U48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/knärot/Johannesbomyran karta knärot.png", "Johannesbomyran")</f>
-        <v/>
-      </c>
-      <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomål/Johannesbomyran FSC-klagomål.docx", "Johannesbomyran")</f>
-        <v/>
-      </c>
-      <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/klagomålsmail/Johannesbomyran FSC-klagomål mail.docx", "Johannesbomyran")</f>
-        <v/>
-      </c>
-      <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsyn/Johannesbomyran tillsynsbegäran.docx", "Johannesbomyran")</f>
-        <v/>
-      </c>
-      <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2025_BJURHOLM/tillsynsmail/Johannesbomyran tillsynsbegäran mail.docx", "Johannesbomyran")</f>
         <v/>
       </c>
     </row>
@@ -5773,11 +5905,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
@@ -5857,11 +5989,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
@@ -5945,11 +6077,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
@@ -6029,11 +6161,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
@@ -6112,11 +6244,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
@@ -6195,11 +6327,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
@@ -6278,11 +6410,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
@@ -6333,11 +6465,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
@@ -6388,11 +6520,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
@@ -6443,11 +6575,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
@@ -6498,11 +6630,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
@@ -6553,11 +6685,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
@@ -6608,11 +6740,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
@@ -6663,11 +6795,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
@@ -6718,11 +6850,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
@@ -6773,11 +6905,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
@@ -6828,11 +6960,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45865</v>
+        <v>45871</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
